--- a/storage/app/repository/ISO27001-2023.de.xlsx
+++ b/storage/app/repository/ISO27001-2023.de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orth/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1421D7-D85E-9B4B-8307-7EA910BCB571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984F065E-1CA1-C040-93B0-9CB9FAE12ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38340" yWindow="-2820" windowWidth="45880" windowHeight="17660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39960" yWindow="-3260" windowWidth="46300" windowHeight="22720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Arbeitsblatt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="724">
   <si>
     <t>Rahmen</t>
   </si>
@@ -137,9 +137,6 @@
     <t xml:space="preserve"> #Detektiv #Datenschutz #Integrität #Verfügbarkeit #Reagieren #Informationssicherheit_Ereignisbehandlung #Verteidigung</t>
   </si>
   <si>
-    <t>Überprüfen Sie, ob das Auswahlverfahren angewendet wird</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #Fix #Datenschutz #Integrität #Verfügbarkeit #Reagieren #Zurücksetzen #Informationssicherheits-Ereignisbehandlung #Verteidigung</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t xml:space="preserve"> #Präventiv #Vertraulichkeit #Integrität #Verfügbarkeit #Identifizieren #Schützen #Regulierung_und_Compliance #Informationssicherheit #Governance_und_Ökosystem</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sorgen Sie für den korrekten und sicheren Betrieb der Informationsverarbeitungsressourcen.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #Präventiv #Korrigierend #Datenschutz #Integrität #Verfügbarkeit #Schützen #Wiederherstellen #Asset-Management #Physische_Sicherheit #System- und_Netzwerksicherheit #Anwendungssicherheit #Sichere_Konfiguration #Identitäts- und_Zugriffsmanagement #Bedrohungs- und_Schwachstellenmanagement #Kontinuität #Ereignismanagement #Informationssicherheit #Governance_und_Ökosystem #Verteidigung</t>
   </si>
   <si>
@@ -224,18 +218,12 @@
     <t xml:space="preserve"> #Präventiv #Vertraulichkeit #Verfügbarkeit #Schützen #Physische_Sicherheit</t>
   </si>
   <si>
-    <t>Schützen Sie elektrische Kabel, die Daten übertragen oder Informationsdienste unterstützen, vor Abfangen, Störungen oder Beschädigung.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #Präventiv #Datenschutz #Integrität #Verfügbarkeit #Schutz #Physische_Sicherheit #Asset_Management #Resilienz</t>
   </si>
   <si>
     <t xml:space="preserve"> #Präventiv #Datenschutz #Schutz #Physische_Sicherheit #Asset_Management</t>
   </si>
   <si>
-    <t>Überwachen Sie die durchgeführten Sensibilisierungsmaßnahmen und die Kommunikation mit den Interessengruppen. Überprüfen Sie die Qualität der ISMS-Dokumentation.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #Präventiv #Vertraulichkeit #Integrität #Verfügbarkeit #Schützen #Identitäts- und Zugangsmanagement #Anwendungssicherheit #Sichere_Konfiguration</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
     <t xml:space="preserve"> #Präventiv #Detektiv #Integrität #Verfügbarkeit #Identifizieren #Schützen #Detektiv #Kontinuität #Governance_und_Ökosystem</t>
   </si>
   <si>
-    <t>Dokumentieren Sie die Betriebsabläufe und stellen Sie sie den betroffenen Benutzern zur Verfügung.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #Präventiv #Vertraulichkeit #Integrität #Verfügbarkeit #Identifizieren #Schützen #Bedrohungs- und Schwachstellenmanagement #Governance und Ökosystem #Verteidigung</t>
   </si>
   <si>
@@ -269,18 +254,12 @@
     <t xml:space="preserve"> #Reparieren #Integrität #Verfügbarkeit #Wiederherstellen #Kontinuität #Schützen</t>
   </si>
   <si>
-    <t>Bewahren Sie Sicherungskopien von Informationen, Software und Systemen auf und testen Sie diese regelmäßig anhand der definierten Sicherungsrichtlinie.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #Präventiv #Verfügbarkeit #Schutz #Kontinuität #Asset_Management #Resilienz</t>
   </si>
   <si>
     <t xml:space="preserve"> #Detektiv #Korrektur #Datenschutz #Integrität #Verfügbarkeit #Detektiv #Reagieren #Informationssicherheit_Ereignismanagement #Verteidigung</t>
   </si>
   <si>
-    <t>Überwachen Sie Netzwerke, Systeme und Anwendungen auf abnormales Verhalten und ergreifen Sie geeignete Maßnahmen, um potenzielle Informationssicherheitsvorfälle zu bewerten.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #Detektiv #Integrität #Schützen #Detektiv #Informationssicherheit_Ereignisbehandlung #Verteidigung</t>
   </si>
   <si>
@@ -305,15 +284,9 @@
     <t xml:space="preserve"> #Präventiv #Datenschutz #Integrität #Verfügbarkeit #Schutz #Anwendungssicherheit #System- und Netzwerksicherheit #Verteidigung</t>
   </si>
   <si>
-    <t>Kontrollieren Sie den Bestand an Netzwerkdiensten und die Wirksamkeit von Maßnahmen gegen betrügerische Aktivitäten, vertragliche Unstimmigkeiten sowie unbefugte Offenlegung und Änderung.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #Präventiv #Datenschutz #Integrität #Verfügbarkeit #Identifizieren #Anwendungssicherheit #Informationssicherheit #System- und Netzwerksicherheit #Schützen</t>
   </si>
   <si>
-    <t>Führen Sie während der Entwicklung Tests der Sicherheitsfunktionen durch.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #Präventiv #Detektiv #Datenschutz #Integrität #Verfügbarkeit #Identifizieren #Schützen #Detektiv #System- und Netzwerksicherheit #Anwendungssicherheit #Lieferantenbeziehungen #Governance und Ökosystem</t>
   </si>
   <si>
@@ -347,309 +320,18 @@
     <t>27001:2023-4.x</t>
   </si>
   <si>
-    <t>27001:2023-5</t>
-  </si>
-  <si>
-    <t>27001:2023-5.01</t>
-  </si>
-  <si>
-    <t>27001:2023-5.02</t>
-  </si>
-  <si>
-    <t>27001:2023-5.03</t>
-  </si>
-  <si>
-    <t>27001:2023-5.04</t>
-  </si>
-  <si>
-    <t>27001:2023-5.05</t>
-  </si>
-  <si>
-    <t>27001:2023-5.06</t>
-  </si>
-  <si>
-    <t>27001:2023-5.07</t>
-  </si>
-  <si>
-    <t>27001:2023-5.08</t>
-  </si>
-  <si>
-    <t>27001:2023-5.09</t>
-  </si>
-  <si>
-    <t>27001:2023-5.10</t>
-  </si>
-  <si>
-    <t>27001:2023-5.11</t>
-  </si>
-  <si>
-    <t>27001:2023-5.12</t>
-  </si>
-  <si>
-    <t>27001:2023-5.13</t>
-  </si>
-  <si>
-    <t>27001:2023-5.14</t>
-  </si>
-  <si>
-    <t>27001:2023-5.15</t>
-  </si>
-  <si>
-    <t>27001:2023-5.16</t>
-  </si>
-  <si>
-    <t>27001:2023-5.17</t>
-  </si>
-  <si>
-    <t>27001:2023-5.18</t>
-  </si>
-  <si>
-    <t>27001:2023-5.19</t>
-  </si>
-  <si>
-    <t>27001:2023-5.20</t>
-  </si>
-  <si>
-    <t>27001:2023-5.21</t>
-  </si>
-  <si>
-    <t>27001:2023-5.22</t>
-  </si>
-  <si>
-    <t>27001:2023-5.23</t>
-  </si>
-  <si>
-    <t>27001:2023-5.24</t>
-  </si>
-  <si>
-    <t>27001:2023-5.25</t>
-  </si>
-  <si>
-    <t>27001:2023-5.26</t>
-  </si>
-  <si>
-    <t>27001:2023-5.27</t>
-  </si>
-  <si>
-    <t>27001:2023-5.28</t>
-  </si>
-  <si>
-    <t>27001:2023-5.29</t>
-  </si>
-  <si>
-    <t>27001:2023-5.30</t>
-  </si>
-  <si>
-    <t>27001:2023-5.31</t>
-  </si>
-  <si>
-    <t>27001:2023-5.32</t>
-  </si>
-  <si>
-    <t>27001:2023-5.33</t>
-  </si>
-  <si>
-    <t>27001:2023-5.34</t>
-  </si>
-  <si>
-    <t>27001:2023-5.35</t>
-  </si>
-  <si>
-    <t>27001:2023-5.36</t>
-  </si>
-  <si>
-    <t>27001:2023-5.37</t>
-  </si>
-  <si>
     <t>27001:2023-5.x</t>
   </si>
   <si>
-    <t>27001:2023-6</t>
-  </si>
-  <si>
-    <t>27001:2023-6.01</t>
-  </si>
-  <si>
-    <t>27001:2023-6.02</t>
-  </si>
-  <si>
-    <t>27001:2023-6.03</t>
-  </si>
-  <si>
-    <t>27001:2023-6.04</t>
-  </si>
-  <si>
-    <t>27001:2023-6.05</t>
-  </si>
-  <si>
-    <t>27001:2023-6.06</t>
-  </si>
-  <si>
-    <t>27001:2023-6.07</t>
-  </si>
-  <si>
-    <t>27001:2023-6.08</t>
-  </si>
-  <si>
     <t>27001:2023-6.x</t>
   </si>
   <si>
-    <t>27001:2023-7</t>
-  </si>
-  <si>
-    <t>27001:2023-7.01</t>
-  </si>
-  <si>
-    <t>27001:2023-7.02</t>
-  </si>
-  <si>
-    <t>27001:2023-7.03</t>
-  </si>
-  <si>
-    <t>27001:2023-7.04</t>
-  </si>
-  <si>
-    <t>27001:2023-7.05</t>
-  </si>
-  <si>
-    <t>27001:2023-7.06</t>
-  </si>
-  <si>
-    <t>27001:2023-7.07</t>
-  </si>
-  <si>
-    <t>27001:2023-7.08</t>
-  </si>
-  <si>
-    <t>27001:2023-7.09</t>
-  </si>
-  <si>
-    <t>27001:2023-7.10</t>
-  </si>
-  <si>
-    <t>27001:2023-7.11</t>
-  </si>
-  <si>
-    <t>27001:2023-7.12</t>
-  </si>
-  <si>
-    <t>27001:2023-7.13</t>
-  </si>
-  <si>
-    <t>27001:2023-7.14</t>
-  </si>
-  <si>
     <t>27001:2023-7.2</t>
   </si>
   <si>
     <t>27001:2023-7.x</t>
   </si>
   <si>
-    <t>27001:2023-8</t>
-  </si>
-  <si>
-    <t>27001:2023-8.01</t>
-  </si>
-  <si>
-    <t>27001:2023-8.02</t>
-  </si>
-  <si>
-    <t>27001:2023-8.03</t>
-  </si>
-  <si>
-    <t>27001:2023-8.04</t>
-  </si>
-  <si>
-    <t>27001:2023-8.05</t>
-  </si>
-  <si>
-    <t>27001:2023-8.06</t>
-  </si>
-  <si>
-    <t>27001:2023-8.07</t>
-  </si>
-  <si>
-    <t>27001:2023-8.08</t>
-  </si>
-  <si>
-    <t>27001:2023-8.09</t>
-  </si>
-  <si>
-    <t>27001:2023-8.10</t>
-  </si>
-  <si>
-    <t>27001:2023-8.11</t>
-  </si>
-  <si>
-    <t>27001:2023-8.12</t>
-  </si>
-  <si>
-    <t>27001:2023-8.13</t>
-  </si>
-  <si>
-    <t>27001:2023-8.14</t>
-  </si>
-  <si>
-    <t>27001:2023-8.15</t>
-  </si>
-  <si>
-    <t>27001:2023-8.16</t>
-  </si>
-  <si>
-    <t>27001:2023-8.17</t>
-  </si>
-  <si>
-    <t>27001:2023-8.18</t>
-  </si>
-  <si>
-    <t>27001:2023-8.19</t>
-  </si>
-  <si>
-    <t>27001:2023-8.20</t>
-  </si>
-  <si>
-    <t>27001:2023-8.21</t>
-  </si>
-  <si>
-    <t>27001:2023-8.22</t>
-  </si>
-  <si>
-    <t>27001:2023-8.23</t>
-  </si>
-  <si>
-    <t>27001:2023-8.24</t>
-  </si>
-  <si>
-    <t>27001:2023-8.25</t>
-  </si>
-  <si>
-    <t>27001:2023-8.26</t>
-  </si>
-  <si>
-    <t>27001:2023-8.27</t>
-  </si>
-  <si>
-    <t>27001:2023-8.28</t>
-  </si>
-  <si>
-    <t>27001:2023-8.29</t>
-  </si>
-  <si>
-    <t>27001:2023-8.30</t>
-  </si>
-  <si>
-    <t>27001:2023-8.31</t>
-  </si>
-  <si>
-    <t>27001:2023-8.32</t>
-  </si>
-  <si>
-    <t>27001:2023-8.33</t>
-  </si>
-  <si>
-    <t>27001:2023-8.34</t>
-  </si>
-  <si>
     <t>27001:2023-8.x</t>
   </si>
   <si>
@@ -660,21 +342,6 @@
   </si>
   <si>
     <t>Organisatorische Maßnahmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schaffen Sie eine definierte, genehmigte und verständliche Struktur für die Implementierung, den Betrieb und das Management der Informationssicherheit innerhalb derOrganisation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stellen Sie sicher, dass der Ansatz derOrganisation zur Verwaltung der Informationssicherheit stets angemessen, ausreichend und wirksam ist.</t>
-  </si>
-  <si>
-    <t>Überwachen Sie, dass in festgelegten Abständen oder bei wesentlichen Änderungen unabhängige Überprüfungen des Ansatzes derOrganisation zur Verwaltung und Implementierung der Informationssicherheit, einschließlich Mitarbeitern, Prozessen und Technologie, durchgeführt werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stellen Sie sicher, dass die Mitarbeiter ihre Verantwortung in Bezug auf die Informationssicherheit im Rahmen der Funktionen verstehen, die dieOrganisation ihnen anvertrauen möchte.</t>
-  </si>
-  <si>
-    <t>Definieren Sie die Verantwortlichkeiten und die derOrganisation in Bezug auf die Informationssicherheit in den vertraglichen Vereinbarungen zwischen Mitarbeitern und Subunternehmern.</t>
   </si>
   <si>
     <t>ISMS</t>
@@ -1028,57 +695,18 @@
     <t>Stellen Sie sicher, dass Nichtkonformitäten behoben werden und Korrekturmaßnahmen ergriffen werden.</t>
   </si>
   <si>
-    <t>Verstehen Sie die Organisation und ihren Kontext, definieren Sie den Umfang und implementieren Sie ein ISMS</t>
-  </si>
-  <si>
     <t>Stellen Sie kontinuierlich die Relevanz, Angemessenheit und Wirksamkeit der Managementorientierungen und ihrer Unterstützung für die Informationssicherheit gemäß den geschäftlichen, rechtlichen, gesetzlichen, behördlichen und vertraglichen Anforderungen sicher.</t>
   </si>
   <si>
-    <t>Reduzieren Sie das Risiko von Betrug, Fehlern und der Umgehung von Informationssicherheitsmaßnahmen.</t>
-  </si>
-  <si>
     <t>Stellen Sie sicher, dass das Management seine Rolle in der Informationssicherheit versteht und Maßnahmen ergreift, um sicherzustellen, dass alle Mitarbeiter sich ihrer Verantwortung in Bezug auf die Informationssicherheit bewusst sind und diese auch wahrnehmen.</t>
   </si>
   <si>
     <t>Sorgen Sie für einen angemessenen Informationsfluss zur Informationssicherheit zwischen derOrganisation und den relevanten Rechts-, Regulierungs- und Aufsichtsbehörden.</t>
   </si>
   <si>
-    <t>Sorgen Sie für einen ordnungsgemäßen Informationsfluss in Bezug auf die Informationssicherheit.</t>
-  </si>
-  <si>
-    <t>Informieren Sie sich über die Bedrohungslage derOrganisation, damit geeignete Maßnahmen zur Risikominderung ergriffen werden können.</t>
-  </si>
-  <si>
     <t>Stellen Sie sicher, dass Informationssicherheitsrisiken im Zusammenhang mit Projekten und Leistungen während des gesamten Projektlebenszyklus im Projektmanagement wirksam berücksichtigt werden.</t>
   </si>
   <si>
-    <t>Identifizieren Sie Informationen und andere zugehörige Vermögenswerte derOrganisation, um deren Sicherheit zu gewährleisten und die Eigentumsverhältnisse entsprechend zuzuweisen.</t>
-  </si>
-  <si>
-    <t>Stellen Sie sicher, dass Informationen und andere zugehörige Vermögenswerte angemessen geschützt, verwendet und verarbeitet werden.</t>
-  </si>
-  <si>
-    <t>Schützen Sie das Vermögen derOrganisation bei Änderung oder Beendigung des Arbeitsverhältnisses, Vertrags oder der Vereinbarung.</t>
-  </si>
-  <si>
-    <t>Stellen Sie sicher, dass der Informationsschutzbedarf auf der Grundlage seiner Bedeutung für dieOrganisation ermittelt und verstanden wird.</t>
-  </si>
-  <si>
-    <t>Erleichtert die Kommunikation der Informationsklassifizierung und unterstützt die Automatisierung der Informationsverwaltung und -verarbeitung.</t>
-  </si>
-  <si>
-    <t>Sorgen Sie für die Sicherheit der Informationsübermittlung innerhalb derOrganisation und an externe interessierte Parteien.</t>
-  </si>
-  <si>
-    <t>Gewährleisten Sie autorisierten Zugriff und verhindern Sie unbefugten Zugriff auf Informationen und andere zugehörige Vermögenswerte. Dies beinhaltet auch den physischen Zugriff.</t>
-  </si>
-  <si>
-    <t>Ermöglichung der eindeutigen Identifizierung von Personen und Systemen, die auf Informationen und andere zugehörige Vermögenswerte derOrganisation zugreifen, und der angemessenen Zuweisung von Zugriffsrechten.</t>
-  </si>
-  <si>
-    <t>Sorgen Sie für eine korrekte Entitätsauthentifizierung und vermeiden Sie Fehler bei Authentifizierungsprozessen.</t>
-  </si>
-  <si>
     <t>Stellen Sie sicher, dass der Zugang zu Informationen und andere zugehörige Vermögenswerte gemäß den Geschäftsanforderungen definiert und autorisiert ist.</t>
   </si>
   <si>
@@ -1109,9 +737,6 @@
     <t>Schützen Sie Informationen und andere zugehörige Vermögenswerte während einer Störung.</t>
   </si>
   <si>
-    <t>Stellen Sie die Verfügbarkeit von Informationen und anderen zugehörigen Vermögenswerten derOrganisation während einer Störung sicher.</t>
-  </si>
-  <si>
     <t>Stellen Sie die Einhaltung gesetzlicher, behördlicher und vertraglicher Anforderungen in Bezug auf die Informationssicherheit sicher.</t>
   </si>
   <si>
@@ -1124,12 +749,6 @@
     <t>Stellen Sie die Einhaltung gesetzlicher, behördlicher und vertraglicher Anforderungen in Bezug auf Aspekte der Informationssicherheit im Zusammenhang mit dem Schutz personenbezogener Daten sicher.</t>
   </si>
   <si>
-    <t>Stellen Sie sicher, dass die Informationssicherheit in Übereinstimmung mit der Informationssicherheitsrichtlinie sowie themenspezifischen Richtlinien, Regeln und Standards derOrganisation implementiert und betrieben wird.</t>
-  </si>
-  <si>
-    <t>Die oberste Leitung muss in der Lage sein, dieOrganisation so zu führen, dass die Ziele des ISMS erreicht werden.</t>
-  </si>
-  <si>
     <t>Stellen Sie sicher, dass alle Mitarbeiter einer Sicherheitsprüfung unterzogen werden und für die Aufgaben, für die sie infrage kommen, geeignet sind und dass dies während der gesamten Beschäftigungsdauer so bleibt.</t>
   </si>
   <si>
@@ -1145,81 +764,36 @@
     <t>Sorgen Sie für Informationssicherheit, wenn Mitarbeiter remote arbeiten.</t>
   </si>
   <si>
-    <t>Schützen Sie die Interessen derOrganisation im Prozess der Änderung oder Kündigung eines Arbeitsplatzes oder Vertrags.</t>
-  </si>
-  <si>
-    <t>Ermöglichen Sie die zeitnahe, konsistente und effiziente Meldung von Informationssicherheitsereignissen, die vom Personal identifiziert werden können.</t>
-  </si>
-  <si>
     <t>Implementieren Sie Maßnahmen zum Umgang mit Risiken und Chancen. Definieren Sie Informationssicherheitsziele und Pläne zu deren Erreichung. Planen Sie Änderungen am ISMS.</t>
   </si>
   <si>
-    <t>Stellen Sie sicher, dass nur autorisierter physischer Zugriff auf Informationen und andere zugehörige Vermögenswerte derOrganisation möglich ist.</t>
-  </si>
-  <si>
-    <t>Verhindern Sie unbefugten physischen Zugriff, Beschädigung und Manipulation von Informationen und anderen zugehörigen Vermögenswerten derOrganisation in Büros, Räumen und Einrichtungen.</t>
-  </si>
-  <si>
     <t>Verhindern oder verringern Sie die Folgen von Ereignissen, die auf physische oder umweltbedingte Bedrohungen zurückzuführen sind.</t>
   </si>
   <si>
     <t>Schützen Sie Informationen und andere zugehörige Vermögenswerte in sicheren Bereichen vor Schäden und unbefugten Eingriffen durch in diesen Bereichen arbeitendes Personal.</t>
   </si>
   <si>
-    <t>Reduzieren Sie das Risiko physischer und umweltbedingter Bedrohungen sowie unbefugter Zugriffe und Schäden.</t>
-  </si>
-  <si>
     <t>Reduzieren Sie das Risiko eines unbefugten Zugriffs, Verlusts und einer Beschädigung von Informationen auf Schreibtischen, Bildschirmen und an anderen zugänglichen Orten während und außerhalb der normalen Arbeitszeiten.</t>
   </si>
   <si>
-    <t>Erkennen und verhindern Sie unbefugten physischen Zugriff.</t>
-  </si>
-  <si>
     <t>Verhindern Sie Verlust, Beschädigung, Diebstahl oder Gefährdung externer Endpunkte sowie Störungen des Unternehmensbetriebs.</t>
   </si>
   <si>
-    <t>Stellen Sie sicher, dass nur autorisierte Offenlegungen, Änderungen, Entfernungen oder Vernichtungen von Unternehmensinformationen auf Speichermedien erfolgen.</t>
-  </si>
-  <si>
-    <t>Verhindern Sie den Verlust, die Beschädigung oder Gefährdung von Informationen und anderen zugehörigen Vermögenswerten oder die Unterbrechung der Aktivitäten derOrganisation durch Ausfälle und Störungen von Versorgungseinrichtungen.</t>
-  </si>
-  <si>
-    <t>Verhindern Sie den Verlust, die Beschädigung, den Diebstahl oder die Gefährdung von Informationen und anderen zugehörigen Vermögenswerten sowie die Unterbrechung der Aktivitäten derOrganisation aufgrund mangelnder Wartung.</t>
-  </si>
-  <si>
-    <t>Verhindern Sie den Verlust, die Beschädigung, den Diebstahl oder die Gefährdung von Informationen und anderen damit verbundenen Vermögenswerten sowie die UnterbrechungOrganisatorischer Aktivitäten im Zusammenhang mit der Strom- und Kommunikationsverkabelung.</t>
-  </si>
-  <si>
-    <t>Vermeiden Sie das Durchsickern von Informationen aus zu entsorgendem oder wiederzuverwendendem Material.</t>
-  </si>
-  <si>
-    <t>Verfügen Sie über die notwendigen Ressourcen und Fähigkeiten zur Implementierung des ISMS.</t>
-  </si>
-  <si>
     <t>Verhindern Sie unbefugten physischen Zugriff, Beschädigung oder Störung von Informationen und anderen zugehörigen Vermögenswerten des Unternehmens.</t>
   </si>
   <si>
-    <t>Sensibilisierung und Kommunikation für die Bedeutung der Informationssicherheit und Dokumentation des ISMS</t>
-  </si>
-  <si>
     <t>Schützen Sie Informationen vor Risiken, die mit der Verwendung von Endgeräten verbunden sind.</t>
   </si>
   <si>
     <t>Stellen Sie sicher, dass nur autorisierten Benutzern, Softwarekomponenten und Diensten privilegierte Zugriffsrechte gewährt werden.</t>
   </si>
   <si>
-    <t>Stellen Sie sicher, dass nur autorisierter Zugang möglich ist, und verhindern Sie den unbefugten Zugang zu Informationen und andere zugehörige Vermögenswerte.</t>
-  </si>
-  <si>
     <t>Verhindern Sie die Einführung nicht autorisierter Funktionen, vermeiden Sie unbeabsichtigte oder böswillige Änderungen und wahren Sie die Vertraulichkeit wichtigen geistigen Eigentums.</t>
   </si>
   <si>
     <t>Stellen Sie sicher, dass der Bedarf an Mitteln zur Informationsverarbeitung, Personal, Büros und anderen Einrichtungen vorhanden ist.</t>
   </si>
   <si>
-    <t>Stellen Sie sicher, dass Informationen und andere zugehörige Vermögenswerte vor Schadprogrammen geschützt sind.</t>
-  </si>
-  <si>
     <t>Verhindern Sie die Ausnutzung technischer Schwachstellen.</t>
   </si>
   <si>
@@ -1229,9 +803,6 @@
     <t>Begrenzen Sie die Offenlegung sensibler Daten, einschließlich personenbezogener Daten, und halten Sie sich an gesetzliche, behördliche und vertragliche Anforderungen.</t>
   </si>
   <si>
-    <t>Verhindern Sie die unnötige Offenlegung vertraulicher Informationen und halten Sie die gesetzlichen, behördlichen und vertraglichen Anforderungen zur Löschung von Informationen ein.</t>
-  </si>
-  <si>
     <t>Erkennen und verhindern Sie die unbefugte Offenlegung und Extraktion von Informationen durch Personen oder Systeme.</t>
   </si>
   <si>
@@ -1244,12 +815,6 @@
     <t>Protokollieren Sie Ereignisse, erstellen Sie Beweise, stellen Sie die Integrität der Protokollinformationen sicher, verhindern Sie unbefugten Zugriff, identifizieren Sie Informationssicherheitsereignisse, die zu einem Informationssicherheitsvorfall führen können, und helfen Sie bei Untersuchungen.</t>
   </si>
   <si>
-    <t>Ermöglicht die Korrelation und Analyse von Sicherheitsereignissen und anderen aufgezeichneten Daten und unterstützt die Untersuchung von Informationssicherheitsvorfällen.</t>
-  </si>
-  <si>
-    <t>Erkennen Sie abnormales Verhalten und mögliche Vorfälle im Zusammenhang mit der Informationssicherheit.</t>
-  </si>
-  <si>
     <t>Stellen Sie sicher, dass die Verwendung von Dienstprogrammen die Informationssicherheitsmaßnahmen von Systemen und Anwendungen nicht untergräbt.</t>
   </si>
   <si>
@@ -1259,9 +824,6 @@
     <t>Schützen Sie Informationen in Netzwerken und unterstützende Mittel zur Informationsverarbeitung vor Angriffen über das Netzwerk.</t>
   </si>
   <si>
-    <t>Sorgen Sie für Sicherheit bei der Nutzung von Netzwerkdiensten.</t>
-  </si>
-  <si>
     <t>Teilen Sie das Netzwerk in Sicherheitsbereiche auf und steuern Sie den Datenverkehr zwischen diesen Bereichen entsprechend den Geschäftsanforderungen.</t>
   </si>
   <si>
@@ -1280,15 +842,9 @@
     <t>Stellen Sie sicher, dass Informationssysteme während des Entwicklungslebenszyklus sicher entworfen, implementiert und betrieben werden.</t>
   </si>
   <si>
-    <t>Stellen Sie sicher, dass die Software sicher entwickelt wird, um die Anzahl möglicher Schwachstellen in der Informationssicherheit der Software zu reduzieren.</t>
-  </si>
-  <si>
     <t>Überprüfen Sie die Einhaltung der Informationssicherheitsanforderungen, wenn Anwendungen oder Codes in der Umgebung bereitgestellt werden.</t>
   </si>
   <si>
-    <t>Stellen Sie sicher, dass die von derOrganisation geforderten Maßnahmen zur Informationssicherheit im Rahmen der ausgelagerten Systementwicklung umgesetzt werden.</t>
-  </si>
-  <si>
     <t>Schützen Sie die Betriebsumgebung und die zugehörigen Daten vor Gefährdungen, die bei Entwicklungs- und Testaktivitäten entstehen können.</t>
   </si>
   <si>
@@ -1302,12 +858,6 @@
   </si>
   <si>
     <t>Überwachen Sie den Betrieb des ISMS, bewerten und bewältigen Sie Risiken.</t>
-  </si>
-  <si>
-    <t>Sammeln Sie Informationen, um festzustellen, ob das Informationssicherheits-Managementsystem konform ist und effektiv implementiert und gepflegt wird.</t>
-  </si>
-  <si>
-    <t>Stellen Sie sicher, dass das ISMS stets angemessen, geeignet und wirksam ist.</t>
   </si>
   <si>
     <t xml:space="preserve"> #Präventiv #Datenschutz #Integrität #Verfügbarkeit #Schützen #System- und Netzwerksicherheit    #Sichere_Konfiguration #Anwendungssicherheit</t>
@@ -1488,11 +1038,6 @@
     <t>- Verfahren zum Business Continuity Management 
 - Sicherheits- und Kontinuitätsanforderungen 
 - Nachweis der Überprüfung der Maßnahmen</t>
-  </si>
-  <si>
-    <t>- Betroffene Systeme 
-- Kontinuitätsziele 
-- Kontinuitätstests</t>
   </si>
   <si>
     <t>- Bestandsaufnahme der aktuellen gesetzlichen, satzungsmäßigen, behördlichen und vertraglichen Anforderungen 
@@ -1635,24 +1180,6 @@
 - Nachweis der Datenlöschung</t>
   </si>
   <si>
-    <t>- Notwendige Ressourcen 
-- Kompetenzmatrix</t>
-  </si>
-  <si>
-    <t>- Durchgeführte Sensibilisierungsmaßnahmen 
-- Kommunikation mit Interessengruppen 
-- ISMS-Dokumentationsprozess</t>
-  </si>
-  <si>
-    <t>- Durchgeführte Sicherheitsmaßnahmen 
-- Inventarisierung der Benutzerterminals 
-- Nachweis der Anwendung von Schutzmaßnahmen</t>
-  </si>
-  <si>
-    <t>- Einschränkung privilegierter Zugriffsrechte 
-- Kontrolle privilegierter Zugriffsrechte</t>
-  </si>
-  <si>
     <t>- Beschränkungen des Zugangs zu Informationen 
 - Anwendung dieser Beschränkungen</t>
   </si>
@@ -1680,11 +1207,6 @@
 - Durchgeführte Kontrollen</t>
   </si>
   <si>
-    <t>- Bestandsaufnahme der rechtlichen, gesetzlichen, behördlichen und vertraglichen Anforderungen an die Löschung von Informationen 
-- Betroffene Informationen, Geräte und Daten 
-- Nachweis der sicheren Löschung von Informationen</t>
-  </si>
-  <si>
     <t>- Verfahren zur Datenmaskierung 
 - Betroffene Daten 
 - Nachweis der Anwendung der Maskierung</t>
@@ -1693,11 +1215,6 @@
     <t>- Verfahren zur Verhinderung von Datenlecks 
 - Betroffene Daten 
 - Nachweis der Anwendung der Maßnahmen</t>
-  </si>
-  <si>
-    <t>- Inventarisierung der betroffenen Informationsverarbeitungsmittel 
-- Anforderung der Verfügbarkeit 
-- Nachweis der Redundanz</t>
   </si>
   <si>
     <t>- Backup-Richtlinie 
@@ -1726,10 +1243,6 @@
 - implementierte Kontrollen</t>
   </si>
   <si>
-    <t>- Verfahren zur Anlagenkontrolle 
-- Umsetzung von Maßnahmen</t>
-  </si>
-  <si>
     <t>- betroffene Netzwerke 
 - durchgeführte Kontrollen 
 - Überprüfung der Kontrollen</t>
@@ -1739,14 +1252,6 @@
 - Sicherheitsmechanismen, Service-Levels und identifizierter Managementbedarf</t>
   </si>
   <si>
-    <t>- Zugangsmaßnahmen ergriffen 
-- Sperrungen durchgeführt</t>
-  </si>
-  <si>
-    <t>- Inventarisierung von Gruppen von Informationsdiensten, Benutzern und Informationssystemen 
-- Maßnahmen zur Netzwerkpartitionierung</t>
-  </si>
-  <si>
     <t>- Regeln für den Einsatz von Kryptographie 
 - Nachweis der Entwicklung und Umsetzung dieser Regeln 
 - Verwendete kryptographische Schlüssel und Algorithmen</t>
@@ -1757,10 +1262,6 @@
 - Nachweis der Anwendung der Regeln</t>
   </si>
   <si>
-    <t>- Anwendungsdienste, die über öffentliche Netze übertragen werden 
-- Schutzmaßnahmen</t>
-  </si>
-  <si>
     <t>- Prinzipien der Systemsicherheitstechnik 
 - Implementierungsarbeiten für Informationssysteme</t>
   </si>
@@ -1778,21 +1279,8 @@
 - durchgeführte Kontrollen</t>
   </si>
   <si>
-    <t>- Inventarisierung der betroffenen Anwendungen 
-- Entwicklungs-, Test- und Betriebsumgebungen - Maßnahmen zur Umgebungstrennung</t>
-  </si>
-  <si>
     <t>- Änderungsmanagementverfahren 
 - vorgenommene Änderungen</t>
-  </si>
-  <si>
-    <t>- Inventarisierung der Umgebungen mit Testdaten 
-- angewandte Schutzmaßnahmen (Anonymisierung)</t>
-  </si>
-  <si>
-    <t>- Auditanforderungen und -aktivitäten, die Folgendes beinhalten: Überprüfungen der Betriebssysteme 
-- Prognose und Validierung von Aktivitäten 
-- Störungen, die durch diese Überprüfungen verursacht werden</t>
   </si>
   <si>
     <t>- ISMS-Prozesskontrolle 
@@ -1811,9 +1299,6 @@
     <t>Überprüfen Sie das Vorhandensein und die Konsistenz des internen Auditplans, der durchgeführten internen Audits und der Überwachung der Aktionspläne</t>
   </si>
   <si>
-    <t>Kontrollieren Sie die Anforderungen, Prognosen und Validierungen von Aktivitäten und das Vorhandensein von Störungen, die durch diese Checks verursacht werden</t>
-  </si>
-  <si>
     <t>Kontrollieren Sie die Anwendung von Schutzmaßnahmen auf Testdaten</t>
   </si>
   <si>
@@ -1823,42 +1308,18 @@
     <t>Überprüfen Sie, ob Kontrollen bei ausgelagerten Entwicklungen durchgeführt werden.</t>
   </si>
   <si>
-    <t>Überprüfen Sie, ob bei der Aktualisierung auf neue Versionen Tests auf neuen Systemen durchgeführt werden</t>
-  </si>
-  <si>
-    <t>Kontrollieren Sie das Inventar der durchgeführten Entwicklungen und die Anwendung der Kodierungsregeln</t>
-  </si>
-  <si>
     <t>Kontrollieren Sie, dass technische Prinzipien etabliert und aktualisiert werden und dass diese Prinzipien bei der Implementierung von Informationssystemen angewendet werden</t>
   </si>
   <si>
     <t>Kontrollieren Sie das Vorhandensein von Entwicklungsregeln, deren Aktualisierung und die Anwendung von Entwicklungsregeln</t>
   </si>
   <si>
-    <t>Regelt die Regeln für den Einsatz kryptografischer Maßnahmen, deren Entwicklung und Implementierung sowie die verwendeten kryptografischen Schlüssel und Algorithmen.</t>
-  </si>
-  <si>
-    <t>Kontrollieren Sie die Bestandsaufnahme von Gruppen von Informationsdiensten, Benutzern und Informationssystemen und die Umsetzung von Maßnahmen zur Netzwerkpartitionierung</t>
-  </si>
-  <si>
-    <t>Kontrollieren Sie die Zugriffsregeln auf externe Websites und alle vorgenommenen Sperren.</t>
-  </si>
-  <si>
     <t>Überprüfen Sie, ob das Inventar der relevanten Netzwerkdienste vollständig und aktuell ist, ob die Sicherheitsmechanismen und -anforderungen auf Serviceebene identifiziert und in die Servicevereinbarungen integriert sind.</t>
   </si>
   <si>
-    <t>Überprüfen Sie, ob Kontrollen vorhanden sind und ob diese Kontrollen wirksam sind</t>
-  </si>
-  <si>
     <t>Überprüfen Sie die Wirksamkeit des Installationskontrollverfahrens</t>
   </si>
   <si>
-    <t>Kontrollieren Sie die Anwendung von Kontrollen bei der Verwendung von Dienstprogrammen</t>
-  </si>
-  <si>
-    <t>Kontrollieren Sie den Uhrenbestand, die verwendete eindeutige Zeitquelle und die Uhrensynchronisierung auf der Quelle</t>
-  </si>
-  <si>
     <t>Kontrollieren Sie das Inventar der betroffenen Netzwerke, Systeme und Anwendungen, die eingerichteten Erkennungsmaßnahmen und dass Bewertungen durchgeführt oder Vorfälle generiert werden</t>
   </si>
   <si>
@@ -1868,24 +1329,9 @@
     <t>Überprüfen Sie die Aktualität des Inventars, die Verfügbarkeitsanforderungen und das Vorhandensein von Redundanznachweisen</t>
   </si>
   <si>
-    <t>Überprüfen Sie die Existenz und Aktualisierung der Backup-Policy, prüfen Sie die Existenz und Anzahl der Backups, prüfen Sie, ob Rücksicherungs-Tests und Desaster-Recovery-Tests durchgeführt wurden</t>
-  </si>
-  <si>
     <t>Überprüfen Sie das Vorhandensein und den Zeitpunkt des Verfahrens. - Überprüfen Sie die betreffenden Daten. - Überprüfen Sie die Anwendung der Maßnahmen.</t>
   </si>
   <si>
-    <t>Überprüfen Sie das Vorhandensein und die Aktualisierung des Maskierungsverfahrens, die Relevanz der betreffenden Daten und die Anwendung der Maskierung</t>
-  </si>
-  <si>
-    <t>Bestandsaufnahme der Anforderungen, relevante Informationen und Nachweise zur Löschung prüfen</t>
-  </si>
-  <si>
-    <t>Überprüfen Sie, ob die Inventarisierung der betroffenen Systeme vollständig ist, die Konfigurationsdokumentation und die durchgeführten Kontrollen</t>
-  </si>
-  <si>
-    <t>Überprüfen Sie, ob das Inventar relevant ist und ob es einen Nachweis für die Überprüfung der getroffenen Maßnahmen gibt.</t>
-  </si>
-  <si>
     <t>Kontrollieren Sie das Vorhandensein und die Aktualisierung von Betriebsverfahren und die Bereitstellung von Verfahren für die betroffenen Benutzer</t>
   </si>
   <si>
@@ -1895,18 +1341,9 @@
     <t>Kontrollieren Sie die Anwendung sicherer Verbindungsverfahren</t>
   </si>
   <si>
-    <t>Überprüfen Sie, ob die Einschränkung des Zugangs zum Programmquellcode wirksam ist.</t>
-  </si>
-  <si>
     <t>Kontrollieren Sie die Beschränkungen des Zugangs auf Informationen und die Anwendung dieser Beschränkungen gemäß der Richtlinie zum Thema Zugangskontrolle.</t>
   </si>
   <si>
-    <t>Kontrollieren Sie das Vorhandensein von Einschränkungen privilegierter Zugriffsrechte und die Zuweisung privilegierter Zugriffsrechte</t>
-  </si>
-  <si>
-    <t>Kontrollieren Sie, dass alle auf einem Endbenutzerterminal gespeicherten, von diesem Gerätetyp verarbeiteten oder über diesen zugänglichen Informationen geschützt sind.</t>
-  </si>
-  <si>
     <t>Prüfen Sie, ob die erforderlichen Ressourcen vorhanden sind und über die erforderlichen Fähigkeiten verfügen.</t>
   </si>
   <si>
@@ -1922,9 +1359,6 @@
     <t>Kontrollieren Sie den Gerätebestand und die Anwendung von Schutzmaßnahmen.</t>
   </si>
   <si>
-    <t>Überprüfen Sie, ob die Verfahren zur Verwaltung von Wechseldatenträgern gemäß dem von derOrganisation verabschiedeten Klassifizierungsplan umgesetzt werden. - Überwachen Sie, dass nicht mehr benötigte Datenträger gemäß den formalen Verfahren sicher entsorgt werden. - Überprüfen Sie, ob die Datenträger mit Informationen vor unbefugtem Zugriff, Benutzerfehlern und Änderungen während des Transports geschützt sind.</t>
-  </si>
-  <si>
     <t>Überwachen Sie die Anwendung von Sicherheitsmaßnahmen</t>
   </si>
   <si>
@@ -1943,9 +1377,6 @@
     <t>Kontrollieren Sie den Bestand, die Sicherheitsmaßnahmen und die Anwendung der Maßnahmen.</t>
   </si>
   <si>
-    <t>Überprüfen Sie, ob Sicherheitsbereiche durch entsprechende Zugangskontrollen geschützt sind, um sicherzustellen, dass nur autorisiertes Personal Zutritt erhält.</t>
-  </si>
-  <si>
     <t>Überprüfen Sie, ob Sicherheitsbereiche zum Schutz von vertraulichen oder kritischen Informationen und andere zugehörige Vermögenswerte definiert sind.</t>
   </si>
   <si>
@@ -1967,18 +1398,9 @@
     <t>Überprüfen Sie, ob ein Sicherheitsbewusstseinsplan vorhanden ist und die Mitarbeiter an Schulungen teilnehmen.</t>
   </si>
   <si>
-    <t>Überprüfen Sie die Existenz der Bedingungen und den Nachweis der Anwesenheit der Bedingungen die Vereinbarungen</t>
-  </si>
-  <si>
     <t>Überprüfen Sie, ob ein aktuelles Verfahren vorliegt und ob Nachweise für die Durchführung des Auswahlprozesses und Sicherheitsprüfung vorhanden sind.</t>
   </si>
   <si>
-    <t>Überwachen Sie: - Nachweis des Engagements der Führung und des Managements - Informationssicherheitsrichtlinie - Rollen, Verantwortlichkeiten und Befugnisse innerhalb derOrganisation</t>
-  </si>
-  <si>
-    <t>Überprüfen Sie regelmäßig, ob die Informationssicherheitsrichtlinie, die Themenrichtlinien und dieOrganisationsstandards eingehalten werden.</t>
-  </si>
-  <si>
     <t>Kontrolle der Existenz und Aktualisierung der Datenschutzrichtlinie und der Anwendung von Schutzmaßnahmen</t>
   </si>
   <si>
@@ -1997,30 +1419,12 @@
     <t>Überprüfen Sie die Existenz und Aktualisierung des Verfahrens. Überprüfen Sie die Sicherheits- und Kontinuitätsanforderungen.</t>
   </si>
   <si>
-    <t>Überprüfung der Dokumentation der Beweiserhebung im Verfahren Kontrolle der Anwendung der Beweiserhebung</t>
-  </si>
-  <si>
     <t>Überprüfen Sie, ob das Verfahren vorhanden und aktuell ist. Überprüfen Sie, ob das Verfahren befolgt wird.</t>
   </si>
   <si>
     <t>Überprüfen Sie, ob die Verantwortlichkeiten für das Vorfallmanagement definiert sind. Überprüfen Sie, ob das Vorfallmanagementverfahren vorhanden und aktuell ist.</t>
   </si>
   <si>
-    <t>Überwachen Sie, dass die Prozesse zum Erwerb, zur Verwendung, zur Verwaltung und zur Beendigung von Cloud-Diensten gemäß den Informationssicherheitsanforderungen derOrganisation definiert sind.</t>
-  </si>
-  <si>
-    <t>Überwachen Sie, dass dieOrganisation Änderungen in den Praktiken der Lieferanten in Bezug auf Informationssicherheit und Leistungserbringung regelmäßig überwacht, überprüft, bewertet und verwaltet.</t>
-  </si>
-  <si>
-    <t>Überprüfen Sie, ob die Anforderungen dokumentiert sind und ob die abgeschlossenen Vereinbarungen die Anforderungen enthalten</t>
-  </si>
-  <si>
-    <t>Überprüfen Sie, ob die Anforderungen dokumentiert und aktualisiert sind und ob die Anforderungen mit den Lieferanten vereinbart wurden.</t>
-  </si>
-  <si>
-    <t>Überprüfen Sie, ob die Anforderungen dokumentiert und aktualisiert sind und ob die Maßnahmen von den Lieferanten akzeptiert werden.</t>
-  </si>
-  <si>
     <t>Überprüfen Sie die Existenz und Anwendung des Prozesses zur Verwaltung der Zuweisung geheimer Authentifizierungsinformationen</t>
   </si>
   <si>
@@ -2028,12 +1432,6 @@
   </si>
   <si>
     <t>Kontrollieren Sie die Definition und Implementierung von Regeln zur Verwaltung des physischen und logischen Zugriffs auf und Zugang zu Informationen und andere zugehörige Vermögenswerte basierend auf Geschäfts- und Informationssicherheitsanforderungen.</t>
-  </si>
-  <si>
-    <t>Überprüfen Sie die Umsetzung der Regeln, Verfahren oder Vereinbarungen zur Informationsübermittlung, das Verzeichnis der betreffenden Vereinbarungen und die Bedingungen der Vereinbarungen.</t>
-  </si>
-  <si>
-    <t>Kontrollieren Sie den Branding-Prozess und seine Implementierung anhand einer Stichprobe von Unternehmensinformationen.</t>
   </si>
   <si>
     <t>Kontrollieren Sie die Existenz und Aktualisierung des Verfahrens und seines Inhalts unter Berücksichtigung des Kontexts derOrganisation</t>
@@ -2167,9 +1565,6 @@
     <t>Planen und validieren Sie Auditanforderungen und -aktivitäten sorgfältig, einschließlich Überprüfungen von Live-Systemen, um Störungen der Geschäftsprozesse zu minimieren.</t>
   </si>
   <si>
-    <t>Kontrollieren Sie Systemänderungen innerhalb des Entwicklungszyklus durch formale Verfahren.</t>
-  </si>
-  <si>
     <t>Trennen Sie Entwicklungs-, Test- und Betriebsumgebungen, um das Risiko eines unbefugten Zugriffs oder von Änderungen an der Betriebsumgebung zu verringern.</t>
   </si>
   <si>
@@ -2182,72 +1577,27 @@
     <t>Erstellen und dokumentieren Sie Grundsätze der Systemsicherheitstechnik, pflegen Sie diese und wenden Sie sie bei der gesamten Implementierung von Informationssystemen an.</t>
   </si>
   <si>
-    <t>Schützen Sie sich vor betrügerischen Aktivitäten, Vertragsstreitigkeiten und der unbefugten Offenlegung und Änderung von Informationen im Zusammenhang mit Anwendungsdiensten, die über öffentliche Netzwerke übertragen werden.</t>
-  </si>
-  <si>
-    <t>Erstellen und wenden Sie Regeln für die Software- und Systementwicklung auf die Entwicklungen derOrganisation an.</t>
-  </si>
-  <si>
-    <t>Definieren und implementieren Sie Regeln für die Verwendung der Kryptografie, einschließlich der Verwaltung kryptografischer Schlüssel.</t>
-  </si>
-  <si>
     <t>Verwalten Sie den Zugriff auf externe Websites, um die Gefährdung durch schädliche Inhalte zu verringern.</t>
   </si>
   <si>
-    <t>Verwalten und steuern Sie Netzwerke, um die in Systemen und Anwendungen enthaltenen Informationen zu schützen.</t>
-  </si>
-  <si>
-    <t>Es werden Verfahren implementiert, um die Installation von Software in Betriebssystemen zu steuern.</t>
-  </si>
-  <si>
-    <t>Erstellen Sie eine Bestandsaufnahme der Dienstprogramme, die zum Umgehen der Sicherheitsmaßnahmen eines Systems oder einer Anwendung verwendet werden, und beschränken und kontrollieren Sie deren Verwendung genau.</t>
-  </si>
-  <si>
-    <t>Die Uhren aller relevanten Informationsverarbeitungssysteme einerOrganisation oder Sicherheitsdomäne werden auf eine einzige Zeitreferenzquelle synchronisiert.</t>
-  </si>
-  <si>
     <t>Erstellen, schützen, speichern und analysieren Sie Protokolle, die Aktivitäten, Ausnahmen, Ausfälle und andere relevante Ereignisse aufzeichnen.</t>
   </si>
   <si>
-    <t>Implementieren Sie Informationsverarbeitungsressourcen mit ausreichender Redundanz, um die Verfügbarkeitsanforderungen zu erfüllen.</t>
-  </si>
-  <si>
-    <t>Wenden Sie Maßnahmen zur Verhinderung von Datenlecks auf Systeme, Netzwerke und Terminals an, die vertrauliche Informationen verarbeiten, speichern oder übertragen.</t>
-  </si>
-  <si>
-    <t>Löschen Sie in Informationssystemen und Geräten gespeicherte Informationen, wenn diese nicht mehr benötigt werden. Führen Sie Nachweise über die ordnungsgemäße Löschung.</t>
-  </si>
-  <si>
     <t>Überprüfen Sie Hardware, Software, Dienste und Netzwerke, um sicherzustellen, dass sie ordnungsgemäß mit den erforderlichen Sicherheitseinstellungen funktionieren und dass die Konfiguration nicht durch unbefugte oder falsche Änderungen verändert wird. Prüfen Sie, ob ein funktionierendes Change-Management vorhanden ist.</t>
   </si>
   <si>
-    <t>Informieren Sie sich über technische Schwachstellen in Informationssystemen, bewerten Sie die Gefährdung derOrganisation durch diese Schwachstellen und ergreifen Sie entsprechende Maßnahmen.</t>
-  </si>
-  <si>
     <t>Überwachen und passen Sie die Ressourcennutzung an und erstellen Sie Prognosen zur zukünftigen Dimensionierung, um die erforderliche Systemleistung sicherzustellen.</t>
   </si>
   <si>
     <t>Kontrollieren Sie den Zugriff auf Systeme und Anwendungen über ein sicheres Anmeldeverfahren, wenn dies durch die Zuggangskontrollrichtlinie erforderlich ist.</t>
   </si>
   <si>
-    <t>Beschränken Sie den Zugang zum Programmquellcode.</t>
-  </si>
-  <si>
     <t>Überprüfen Sie die Beschränkungen des Zugangs zu Informationen und deren Anwendung</t>
   </si>
   <si>
-    <t>Beschränken und kontrollieren Sie die Zuweisung und Nutzung privilegierter Zugriffsrechte</t>
-  </si>
-  <si>
     <t>Schützen Sie alle Informationen, die auf einem Endbenutzerterminal gespeichert oder verarbeitet werden oder über einen solchen Gerätetyp zugänglich sind.</t>
   </si>
   <si>
-    <t>Sensibilisierung für die Informationssicherheitsrichtlinie und Kommunikation mit den Stakeholdern. Überprüfung der ISMS-Dokumentation.</t>
-  </si>
-  <si>
-    <t>Verfügen Sie über die notwendigen Ressourcen und die erforderlichen Fähigkeiten für das ISMS-Management.</t>
-  </si>
-  <si>
     <t>Stellen Sie sicher, dass alle vertraulichen Daten entfernt und alle lizenzierte Software von der Hardware mit vertraulichen Daten deinstalliert oder sicher überschrieben wurde, bevor Sie sie entsorgen oder wiederverwenden.</t>
   </si>
   <si>
@@ -2263,9 +1613,6 @@
     <t>Wenden Sie Sicherheitsmaßnahmen auf Materialien an, die außerhalb der Firmengebäude verwendet werden, und berücksichtigen Sie dabei die verschiedenen Risiken, die mit Arbeiten auf Baustellen/Montage verbunden sind.</t>
   </si>
   <si>
-    <t>Schützen Sie Materialien vor den Risiken, die mit Umweltbedrohungen und -gefahren sowie der Möglichkeit eines unbefugten Zugriffs verbunden sind.</t>
-  </si>
-  <si>
     <t>Überprüfen Sie die Clean-Desk-Richtlinie für Papierdokumente und Wechseldatenträger. Sensibilisieren Sie die Benutzer für die Einhaltung der Clean-Desk- und Sperrbildschirm-Richtlinie.</t>
   </si>
   <si>
@@ -2296,30 +1643,12 @@
     <t>Formalisieren und kommunizieren Sie ein Disziplinarverfahren, um gegen Mitarbeiter und andere interessierte Parteien vorzugehen, die gegen die Richtlinien zur Informationssicherheit verstoßen haben.</t>
   </si>
   <si>
-    <t>Sensibilisieren Sie das Personal und interessierte Parteien derOrganisation für Informationssicherheit, bieten Sie ihnen entsprechende Schulungen und Trainings zur Informationssicherheit an und informieren Sie sie regelmäßig über die für ihre Funktion geltenden Richtlinien und Verfahren derOrganisation.</t>
-  </si>
-  <si>
     <t>Aktualisieren Sie das Verfahren und führen Sie Checks bei allen Bewerbern durch. Führen Sie für alle Mitarbeiter regelmäßige Sicherheitsüberprüfungen durch.</t>
   </si>
   <si>
-    <t>Definieren und weisen Sie Rollen, Verantwortlichkeiten und Befugnisse in Bezug auf die Informationssicherheit innerhalb derOrganisation zu. Erstellen Sie eine Richtlinie zur Informationssicherheit. Benennen Sie die verantwortlichen Personen namentlich.</t>
-  </si>
-  <si>
-    <t>Überprüfen Sie die Informationssysteme auf die Einhaltung der Informationssicherheitsrichtlinien und -standards derOrganisation.</t>
-  </si>
-  <si>
-    <t>Führen Sie eine unabhängige Überprüfung des Ansatzes derOrganisation zur Verwaltung und Umsetzung der Informationssicherheit durch (d. h. Überwachung der Sicherheitsziele, Maßnahmen, Richtlinien, Verfahren und Prozesse in Bezug auf Sicherheitsinformationen) und erstellen Sie einen Überwachungsplan für die Überprüfung.</t>
-  </si>
-  <si>
-    <t>Gewährleistung des Schutzes der Privatsphäre und des Schutzes personenbezogener Daten gemäß den geltenden Gesetzen oder Vorschriften sowie gegebenenfalls vertraglichen Klauseln. Überprüfen Sie die Umsetzung der technisch undOrganisatorischen Maßnahmen aus dem Datenschutz (DSGVO).</t>
-  </si>
-  <si>
     <t>Schützen Sie Aufzeichnungen vor Verlust, Zerstörung, Manipulation, unbefugtem Zugriff und unbefugter Verbreitung gemäß den gesetzlichen, behördlichen, vertraglichen und geschäftlichen Anforderungen.</t>
   </si>
   <si>
-    <t>Implementieren Sie geeignete Verfahren, um die Einhaltung gesetzlicher, behördlicher und vertraglicher Anforderungen in Bezug auf geistiges Eigentum und die Verwendung proprietärer Softwarelizenzen sicherzustellen.</t>
-  </si>
-  <si>
     <t>Definieren, dokumentieren und aktualisieren Sie explizit alle geltenden gesetzlichen, behördlichen und vertraglichen Anforderungen sowie den Ansatz derOrganisation zur Erfüllung dieser Anforderungen für jedes Informationssystem und für dieOrganisation selbst.</t>
   </si>
   <si>
@@ -2414,6 +1743,696 @@
   </si>
   <si>
     <t>#Präventiv #Vertraulichkeit #Integrität #Verfügbarkeit #Identifizieren #Governance #Governance_und_Ökosystem #Schützen #Resilienz</t>
+  </si>
+  <si>
+    <t>27001:2023 (D)</t>
+  </si>
+  <si>
+    <t>27001:2023-A5</t>
+  </si>
+  <si>
+    <t>27001:2023-A6</t>
+  </si>
+  <si>
+    <t>27001:2023-A7</t>
+  </si>
+  <si>
+    <t>27001:2023-A8</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.1</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.2</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.3</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.4</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.5</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.6</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.7</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.8</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.9</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.10</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.11</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.12</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.13</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.14</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.15</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.16</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.17</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.18</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.19</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.20</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.21</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.22</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.23</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.24</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.25</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.26</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.27</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.28</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.29</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.30</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.31</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.32</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.33</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.34</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.35</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.36</t>
+  </si>
+  <si>
+    <t>27001:2023-A5.37</t>
+  </si>
+  <si>
+    <t>27001:2023-A6.1</t>
+  </si>
+  <si>
+    <t>27001:2023-A6.2</t>
+  </si>
+  <si>
+    <t>27001:2023-A6.3</t>
+  </si>
+  <si>
+    <t>27001:2023-A6.4</t>
+  </si>
+  <si>
+    <t>27001:2023-A6.5</t>
+  </si>
+  <si>
+    <t>27001:2023-A6.6</t>
+  </si>
+  <si>
+    <t>27001:2023-A6.7</t>
+  </si>
+  <si>
+    <t>27001:2023-A6.8</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.1</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.2</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.3</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.4</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.5</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.6</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.7</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.8</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.9</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.10</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.11</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.12</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.13</t>
+  </si>
+  <si>
+    <t>27001:2023-A7.14</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.1</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.2</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.3</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.4</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.5</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.6</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.7</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.8</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.9</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.10</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.11</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.12</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.13</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.14</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.15</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.16</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.17</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.18</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.19</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.20</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.21</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.22</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.23</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.24</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.25</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.26</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.27</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.28</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.29</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.30</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.31</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.32</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.33</t>
+  </si>
+  <si>
+    <t>27001:2023-A8.34</t>
+  </si>
+  <si>
+    <t>Verstehen Sie die Organisation und ihren Kontext, verstehen Sie die Erfordernisse und Erwartungen interessierter Parteien und definieren Sie den Anwendungsbereich des ISMS und implementieren Sie es.</t>
+  </si>
+  <si>
+    <t>Schaffen Sie eine definierte, genehmigte und verständliche Struktur für die Implementierung, den Betrieb und das Management der Informationssicherheit innerhalb derOrganisation.</t>
+  </si>
+  <si>
+    <t>Reduzieren Sie das Risiko von Betrug, Fehlern und der Umgehung von Informationssicherheitsmaßnahmen. Widersprechende Aufgaben und Verantwortungsbereiche müssen voneinander getrennt werden.</t>
+  </si>
+  <si>
+    <t>Sorgen Sie für einen ordnungsgemäßen Informationsfluss in Bezug auf die Informationssicherheit. Stellen Sie Kontakt mit speziellen Interessensgruppen oder sontigen sicherheitsorientierten Expertenforen und Fachverbänden her und pflegen Sie diesen Kontakt.</t>
+  </si>
+  <si>
+    <t>Informieren Sie sich über die Bedrohungslage der Informationssicherheit der Organisation, damit geeignete Maßnahmen zur Risikominderung ergriffen werden können.</t>
+  </si>
+  <si>
+    <t>Identifizieren Sie Informationen und andere zugehörige Vermögenswerte der Organisation, um deren Sicherheit zu gewährleisten und die Eigentumsverhältnisse entsprechend zuzuweisen.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass Informationen und andere zugehörige Vermögenswerte angemessen geschützt, verwendet und dokumentiert werden.</t>
+  </si>
+  <si>
+    <t>Schützen Sie das Vermögen der Organisation bei Änderung oder Beendigung des Arbeitsverhältnisses, Vertrags oder der Vereinbarung. Die Werte müssen bei Beendigung des Beschäftigungs- oder Vertragsverhältnisses zurückgegeben werden.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass der Informationsschutzbedarf auf der Grundlage seiner Bedeutung für die Organisation ermittelt und verstanden wird. Etablieren Sie eine Klassifikation der Dokumente auf der Grundlage von Vertraulichkeit, Integrität und Verfügbarkeit.</t>
+  </si>
+  <si>
+    <t>Implementieren Sie die Kennzeichnung von Informationen anhand der Informationsklassifizierung.</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie den Kennzeichnungs-Prozess und seine Implementierung anhand einer Stichprobe von Unternehmensinformationen.</t>
+  </si>
+  <si>
+    <t>Sorgen Sie für die Sicherheit der Informationsübermittlung innerhalb der Organisation und an externe interessierte Parteien.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie die Umsetzung der Regeln, Verfahren oder Vereinbarungen zur Informationsübermittlung, das Verzeichnis der betreffenden Vereinbarungen und die Bedingungen der Vereinbarungen. Beachten Sie dabei die Klassifizierung und Kennzeichnung von Dokumenten.</t>
+  </si>
+  <si>
+    <t>Gewährleisten Sie autorisierten Zugriff und verhindern Sie unbefugten Zugriff auf Informationen und andere zugehörige Vermögenswerte. Dies beinhaltet auch den physischen Zugriff. Die Grundlage dazu sind die Geschäfts- und Informationssicherheitsanforderungen.</t>
+  </si>
+  <si>
+    <t>Ermöglichen Sie die eindeutigen Identifizierung von Personen und Systemen, die auf Informationen und andere zugehörige Vermögenswerte der Organisation zugreifen, und der angemessenen Zuweisung von Zugriffsrechten.</t>
+  </si>
+  <si>
+    <t>Sorgen Sie für eine korrekte Entitätsauthentifizierung und vermeiden Sie Fehler bei Authentifizierungsprozessen. Der gesamte Lebenszyklus von Identitäten muss verwaltet werden.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob die Anforderungen dokumentiert und aktualisiert sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halten Sie im Umgang mit Lieferanten das vereinbarte Maß an Informationssicherheit aufrecht. </t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob die Anforderungen mit den Lieferanten vereinbart wurden. Prüfen Sie die Einhaltung der Vereinbarungen.</t>
+  </si>
+  <si>
+    <t>Definieren Sie Prozesse und Verfahren um die mit IKT-Produkt- und Dienstleistungslieferkette verbundene Informationssicherheitsrisiken zu beherrschen.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob die Anforderungen dokumentiert sind und ob die abgeschlossenen Vereinbarungen die Anforderungen enthalten.</t>
+  </si>
+  <si>
+    <t>Überwachen Sie, dass die Organisation Änderungen in den Praktiken der Lieferanten in Bezug auf Informationssicherheit und Leistungserbringung regelmäßig überwacht, überprüft, bewertet und verwaltet.</t>
+  </si>
+  <si>
+    <t>Überwachen Sie, dass die Prozesse zum Erwerb, zur Verwendung, zur Verwaltung und zur Beendigung von Cloud-Diensten gemäß den Informationssicherheitsanforderungen der Organisation definiert sind.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob das Auswahlverfahren angewendet und dokumentiert wird.</t>
+  </si>
+  <si>
+    <t>Überprüfung der Dokumentation der Beweiserhebung im Verfahren. Kontrolle der Anwendung der Beweiserhebung.</t>
+  </si>
+  <si>
+    <t>Stellen Sie die Verfügbarkeit von Informationen und anderen zugehörigen Vermögenswerten der Organisation während einer Störung sicher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Betroffene Systeme 
+- Kontinuitätsziele (Business Continuity Management)
+- Kontinuitätstests </t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass der Ansatz der Organisation zur Verwaltung der Informationssicherheit stets angemessen, ausreichend und wirksam ist.</t>
+  </si>
+  <si>
+    <t>Überwachen Sie, dass in festgelegten Abständen oder bei wesentlichen Änderungen unabhängige Überprüfungen des Ansatzes der Organisation zur Verwaltung und Implementierung der Informationssicherheit, einschließlich Mitarbeitern, Prozessen und Technologie, durchgeführt werden.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass die Informationssicherheit in Übereinstimmung mit der Informationssicherheitsrichtlinie sowie themenspezifischen Richtlinien, Regeln und Standards der Organisation implementiert und betrieben wird.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie regelmäßig, ob die Informationssicherheitsrichtlinie, die Themenrichtlinien und die Organisationsstandards eingehalten werden.</t>
+  </si>
+  <si>
+    <t>Sorgen Sie für den korrekten und sicheren Betrieb der Informationsverarbeitungsressourcen.</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie das Vorhandensein der Dokumentation und die Aktualisierung von Betriebsverfahren und die Bereitstellung der Informationsverarbeitungsanlagen für die betroffenen Benutzer</t>
+  </si>
+  <si>
+    <t>Die oberste Leitung muss in der Lage sein, die Organisation so zu führen, dass die Ziele des ISMS erreicht werden.</t>
+  </si>
+  <si>
+    <t>Überwachen Sie: - Nachweis des Engagements der Führung und des Managements - Informationssicherheitsrichtlinie - Rollen, Verantwortlichkeiten und Befugnisse innerhalb der Organisation</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass die Mitarbeiter ihre Verantwortung in Bezug auf die Informationssicherheit im Rahmen der Funktionen verstehen, die die Organisation ihnen anvertrauen möchte.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie die Existenz der Bedingungen und den Nachweis der Anwesenheit der Bedingungen in den Vereinbarungen</t>
+  </si>
+  <si>
+    <t>Schützen Sie die Interessen der Organisation im Prozess der Änderung oder Kündigung eines Arbeitsplatzes oder Vertrags.</t>
+  </si>
+  <si>
+    <t>Ermöglichen Sie die zeitnahe, konsistente und effiziente Meldung von Informationssicherheitsereignissen durch Mitarbeiter.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass nur autorisierter physischer Zutritt zu Informationen und andere zugehörige Vermögenswerte der Organisation möglich ist.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob Sicherheitsbereiche durch entsprechende Zutrittskontrollen geschützt sind, um sicherzustellen, dass nur autorisiertes Personal Zutritt erhält.</t>
+  </si>
+  <si>
+    <t>Verhindern Sie unbefugten physischen Zutritt, Beschädigung und Manipulation von Informationen und anderen zugehörigen Vermögenswerten der Organisation in Büros, Räumen und Einrichtungen.</t>
+  </si>
+  <si>
+    <t>Erkennen und verhindern Sie unbefugten physischen Zugang.</t>
+  </si>
+  <si>
+    <t>Reduzieren Sie das Risiko physischer und umweltbedingter Bedrohungen sowie unbefugter Zugriffe und Schäden durch geschützte Platzierung der Geräte und Betriebsmitteln.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass nur autorisierte Offenlegungen, Änderungen, Entfernungen oder Vernichtungen von Unternehmensinformationen auf Speichermedien erfolgen. Der gesamte Lebenszyklus des Speichermediums muss in Übereinstimmung mit dem Klassifizierungsschema überwacht werden.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob die Verfahren zur Verwaltung von Wechseldatenträgern gemäß dem von der Organisation verabschiedeten Klassifizierungsplan umgesetzt werden. - Überwachen Sie, dass nicht mehr benötigte Datenträger gemäß den formalen Verfahren sicher entsorgt werden. - Überprüfen Sie, ob die Datenträger mit Informationen vor unbefugtem Zugriff, Benutzerfehlern und Änderungen während des Transports geschützt sind.</t>
+  </si>
+  <si>
+    <t>Verhindern Sie den Verlust, die Beschädigung oder Gefährdung von Informationen und anderen zugehörigen Vermögenswerten oder die Unterbrechung der Aktivitäten der Organisation durch Ausfälle und Störungen von Versorgungseinrichtungen.</t>
+  </si>
+  <si>
+    <t>Verhindern Sie den Verlust, die Beschädigung, den Diebstahl oder die Gefährdung von Informationen und anderen damit verbundenen Vermögenswerten sowie die Unterbrechung organisatorischer Aktivitäten im Zusammenhang mit der Strom- und Kommunikationsverkabelung.</t>
+  </si>
+  <si>
+    <t>Verhindern Sie den Verlust, die Beschädigung, den Diebstahl oder die Gefährdung von Informationen und anderen zugehörigen Vermögenswerten sowie die Unterbrechung der Aktivitäten der Organisation aufgrund mangelnder Wartung.</t>
+  </si>
+  <si>
+    <t>Vermeiden Sie den Verlust von Informationen oder lizenzierter Software aus zu entsorgendem oder wiederzuverwendendem Material.</t>
+  </si>
+  <si>
+    <t>Verfügen Sie über die notwendigen Fähigkeiten zur Implementierung und den Betrieb des ISMS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Kompetenzmatrix</t>
+  </si>
+  <si>
+    <t>Sorgen Sie für die Sensibilisierung und Kommunikation für die Bedeutung der Informationssicherheit und Dokumentation des ISMS. Stellen Sie die Ressourcen für den Aufbau und den Betrieb des ISMS bereit.</t>
+  </si>
+  <si>
+    <t>- Notwendige Ressourcen 
+- Durchgeführte Sensibilisierungsmaßnahmen 
+- Kommunikation mit Interessengruppen 
+- ISMS-Dokumentationsprozess</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie das Vorhandensein der notwendigen Ressourcen. Überwachen Sie die durchgeführten Sensibilisierungsmaßnahmen und die Kommunikation mit den Interessengruppen. Überprüfen Sie die Qualität der ISMS-Dokumentation.</t>
+  </si>
+  <si>
+    <t>- Durchgeführte Sicherheitsmaßnahmen 
+- Inventarisierung der Endpunktgeräte 
+- Nachweis der Anwendung von Schutzmaßnahmen</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie, dass alle auf einem Endpunktgerät gespeicherten, von diesem Gerätetyp verarbeiteten oder über diesen zugänglichen Informationen geschützt sind.</t>
+  </si>
+  <si>
+    <t>- Einschränkung privilegierter Zugangsrechte 
+- Kontrolle privilegierter Zugangsrechte</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie das Vorhandensein von Einschränkungen privilegierter Zugriffsrechte und die Zuweisung privilegierter Zugriffsrechte.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass nur autorisierter Zugang möglich ist und verhindern Sie den unbefugten Zugang zu Informationen und andere zugehörige Vermögenswerte.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob die Einschränkung des Zugangs zum Programmquellcode, Entwicklungswerkzeugen und Softwarebibliotheken wirksam ist.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass Informationen und andere zugehörige Vermögenswerte vor Schadprogrammen geschützt sind. Sensibilisieren Sie die Benutzer für die Umsetzung der Maßnahmen.</t>
+  </si>
+  <si>
+    <t>- Betriebsverfahren 
+- Verfügbarkeit der Verfahren für Benutzer
+- Sensibilisierung der Benutzer</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob das Inventar relevant ist und ob es einen Nachweis für die Überprüfung der getroffenen Maßnahmen gibt. Überprüfen Sie die Aktualität der Informationen über technische Schwachstellen.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob die Inventarisierung der betroffenen Systeme und die Konfigurationsdokumentation vollständig ist. Überprüfen Sie die durchgeführten Kontrollen.</t>
+  </si>
+  <si>
+    <t>Verhindern Sie die Offenlegung vertraulicher Informationen und halten Sie die gesetzlichen, behördlichen und vertraglichen Anforderungen zur Löschung von Informationen ein.</t>
+  </si>
+  <si>
+    <t>- Bestandsaufnahme der rechtlichen, gesetzlichen, behördlichen und vertraglichen Anforderungen an die Löschung von Informationen 
+- Betroffene Informationen, Geräte und Daten 
+- Nachweis der sicheren Löschung von Informationen
+- Löschfristen von Daten</t>
+  </si>
+  <si>
+    <t>Führen Sie eine Bestandsaufnahme der Anforderungen durch, prüfen Sie relevante Informationen und Nachweise zur Löschung. Prüfen Sie das Vorhandensein von Löschfristen für Daten.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie das Vorhandensein und die Aktualisierung des Maskierungsverfahrens (Pseudonymisierung und Anonymisierung), die Relevanz der betreffenden Daten und die Anwendung der Maskierung</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie die Existenz und Aktualisierung der Backup-Policy, prüfen Sie die Existenz und Anzahl der Backups, prüfen Sie, ob Rücksicherungs-Tests und Desaster-Recovery-Tests durchgeführt wurden. Prüfen Sie auf Schutz gegen Verschlüsselung.</t>
+  </si>
+  <si>
+    <t>- Inventarisierung der betroffenen informationsverarbeitenden Einrichtungen 
+- Anforderung der Verfügbarkeit 
+- Nachweis der Redundanz</t>
+  </si>
+  <si>
+    <t>Erkennen Sie anormales Verhalten und mögliche Vorfälle im Netzwerk, auf Systemen und bei Anwendungen im Zusammenhang mit der Informationssicherheit.</t>
+  </si>
+  <si>
+    <t>Ermöglichen Sie die Korrelation und Analyse von Sicherheitsereignissen und anderen aufgezeichneten Daten durch Uhrensynchronisation und unterstützen Sie damit die Untersuchung von Informationssicherheitsvorfällen.</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie den Uhrenbestand, die verwendete eindeutige Zeitquelle und die Uhrensynchronisierung der informationsverarbeitenden Systeme auf eine Quelle</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie die Anwendung von Kontrollen bei der Verwendung von Hilfsprogrammen mit priviligierten Rechten</t>
+  </si>
+  <si>
+    <t>- Verfahren zur Anlagenkontrolle
+- Verfahren zur Installation von Software 
+- Umsetzung von Maßnahmen</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob Kontrollen vorhanden sind und ob diese Kontrollen für die Netzwerke und Netzwerkgeräte wirksam sind</t>
+  </si>
+  <si>
+    <t>Sorgen Sie für Sicherheit und Dienstgüte bei der Nutzung von Netzwerkdiensten.</t>
+  </si>
+  <si>
+    <t>- Inventarisierung von Gruppen von Informationsdiensten, Benutzern und Informationssystemen 
+- Maßnahmen zur Netzwerkpartitionierung"</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie die Zugriffsregeln auf die Informationsdienste und die Informationssysteme auf Gruppenbasis und Zugehörigkeit der Benutzer.</t>
+  </si>
+  <si>
+    <t>- Zugangsmaßnahmen ergriffen
+- Sperrungen durchgeführt</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie die Beschränkung auf externe Webseiten und die Wirksamkeit der Webfilter.</t>
+  </si>
+  <si>
+    <t>Prüfen Sie die Regeln für den Einsatz kryptographischer Maßnahmen, deren Entwicklung und Implementierung sowie die verwendeten kryptographischen Schlüssel und Algorithmen.</t>
+  </si>
+  <si>
+    <t>- Anforderungen der Informationssicherheit an die Entwicklung und Beschaffung 
+- Schutzmaßnahmen</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie den Bestand an Vorgaben für eine sichere Entwicklung und Beschaffung von Anwendungen und die Einhaltung dieser Vorgaben.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass die Software sicher codiert wird, um die Anzahl möglicher Schwachstellen in der Informationssicherheit der Software zu reduzieren.</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie das Inventar der durchgeführten Entwicklungen und die Anwendung der Codierungsregeln</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob bei der Aktualisierung auf neue Versionen Sicherheits- und Konformitätstests durchgeführt wurden.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass die von der Organisation geforderten Maßnahmen zur Informationssicherheit im Rahmen der ausgelagerten Systementwicklung umgesetzt werden.</t>
+  </si>
+  <si>
+    <t>- Inventarisierung der betroffenen Anwendungen 
+- Entwicklungs-, Test- und Betriebsumgebungen
+ - Maßnahmen zur Umgebungstrennung</t>
+  </si>
+  <si>
+    <t>- Inventarisierung der Umgebungen mit Testdaten 
+- angewandte Schutzmaßnahmen (Datenmaskierung)</t>
+  </si>
+  <si>
+    <t>Auditanforderungen und -aktivitäten, die Folgendes beinhalten: 
+- Überprüfungen der Betriebssysteme 
+- Prognose und Validierung von Aktivitäten 
+- Störungen, die durch diese Überprüfungen verursacht werden</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie die Anforderungen, Prognosen und Validierungen von Aktivitäten und das Vorhandensein von Störungen, die durch diese Tests verursacht werden</t>
+  </si>
+  <si>
+    <t>Sammeln Sie in regelmäßigen Abständen Informationen, um festzustellen, ob das Informationssicherheits-Managementsystem konform ist und effektiv implementiert und gepflegt wird.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass das ISMS stets angemessen, geeignet und wirksam ist und von der obersten Leitung regelmäßig bewertet wird.</t>
+  </si>
+  <si>
+    <t>Implementieren Sie geeignete Verfahren, um die Einhaltung gesetzlicher, behördlicher und vertraglicher Anforderungen in Bezug auf geistiges Eigentum und die Verwendung proprietärer Softwarelizenzen sicherzustellen. Prüfen Sie die Kennzeichnungen des geistigen Eigentums (intellectual property).</t>
+  </si>
+  <si>
+    <t>Gewährleistung des Schutzes der Privatsphäre und des Schutzes personenbezogener Daten gemäß den geltenden Gesetzen oder Vorschriften sowie gegebenenfalls vertraglichen Klauseln. Überprüfen Sie die Umsetzung der technisch und organisatorischen Maßnahmen aus dem Datenschutz (DSGVO).</t>
+  </si>
+  <si>
+    <t>Führen Sie eine unabhängige Überprüfung des Ansatzes der Organisation zur Verwaltung und Umsetzung der Informationssicherheit durch (d. h. Überwachung der Sicherheitsziele, Maßnahmen, Richtlinien, Verfahren und Prozesse in Bezug auf Sicherheitsinformationen) und erstellen Sie einen Überwachungsplan für die Überprüfung.</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie die Informationssysteme auf die Einhaltung der Informationssicherheitsrichtlinien und -standards der Organisation.</t>
+  </si>
+  <si>
+    <t>Definieren und weisen Sie Rollen, Verantwortlichkeiten und Befugnisse in Bezug auf die Informationssicherheit innerhalb der Organisation zu. Erstellen Sie eine Richtlinie zur Informationssicherheit. Benennen Sie die verantwortlichen Personen namentlich.</t>
+  </si>
+  <si>
+    <t>Definieren Sie die Verantwortlichkeiten und die der Organisation in Bezug auf die Informationssicherheit in den vertraglichen Vereinbarungen zwischen Mitarbeitern und Subunternehmern.</t>
+  </si>
+  <si>
+    <t>Sensibilisieren Sie das Personal und interessierte Parteien der Organisation für Informationssicherheit, bieten Sie ihnen entsprechende Schulungen und Trainings zur Informationssicherheit an und informieren Sie sie regelmäßig über die für ihre Funktion geltenden Richtlinien und Verfahren der Organisation.</t>
+  </si>
+  <si>
+    <t>Schützen Sie Geräte und Betriebsmittel vor den Risiken, die mit Umweltbedrohungen und -gefahren sowie der Möglichkeit eines unbefugten Zugriffs verbunden sind.</t>
+  </si>
+  <si>
+    <t>Schützen Sie elektrische Kabel, die Daten übertragen oder Informationsdienste unterstützen, vor Abfangen, Störungen oder Beschädigung. Prüfen Sie, ob alle Verteilerschränke verschlossen sind und ob das Schloss oder der Zugang zu den Kabeln den Informationssicherheitsanforderungen entspricht.</t>
+  </si>
+  <si>
+    <t>Erwerben Sie die erforderlichen Fähigkeiten für das ISMS-Management.</t>
+  </si>
+  <si>
+    <t>Stellen Sie die benötigten Ressourcen bereit. Stellen Sie die Sensibilisierung für die Informationssicherheitsrichtlinie und Kommunikation mit den Stakeholdern sicher. Überprüfung der ISMS-Dokumentation.</t>
+  </si>
+  <si>
+    <t>Beschränken und kontrollieren Sie die Zuweisung und Nutzung privilegierter Zugangsrechte. Erstellen Sie Vorgaben zur Vergabe der privilegierten Zugangsrechte.</t>
+  </si>
+  <si>
+    <t>Beschränken Sie den Zugang zum Programmquellcode, Entwicklungswerkzeugen und Softwarebibliotheken.</t>
+  </si>
+  <si>
+    <t>Informieren Sie sich über aktuelle technische Schwachstellen in Informationssystemen, bewerten Sie die Gefährdung der Organisation durch diese Schwachstellen und ergreifen Sie entsprechende Maßnahmen.</t>
+  </si>
+  <si>
+    <t>Löschen Sie in Informationssystemen und Geräten gespeicherte Informationen, wenn diese nicht mehr benötigt werden. Führen Sie Nachweise über die ordnungsgemäße Löschung. Legen Sie Löschfristen von Daten fest.</t>
+  </si>
+  <si>
+    <t>Wenden Sie Maßnahmen zur Verhinderung von Datenlecks auf Systeme, Netzwerke und Endpunktgeräte an, die vertrauliche Informationen verarbeiten, speichern oder übertragen.</t>
+  </si>
+  <si>
+    <t>Bewahren Sie Sicherungskopien von Informationen, Software und Systemen auf und testen Sie diese regelmäßig anhand der definierten Sicherungsrichtlinie. Sichern Sie die Sicherungskopien gegen Verschlüsselung.</t>
+  </si>
+  <si>
+    <t>Implementieren Sie informationsverarbeitende Einrichtungen mit ausreichender Redundanz, um die Verfügbarkeitsanforderungen zu erfüllen.</t>
+  </si>
+  <si>
+    <t>Überwachen Sie Netzwerke, Systeme und Anwendungen auf anormales Verhalten und ergreifen Sie geeignete Maßnahmen, um potenzielle Informationssicherheitsvorfälle zu bewerten.</t>
+  </si>
+  <si>
+    <t>Die Uhren aller relevanten Informationsverarbeitungssysteme einer Organisation oder Sicherheitsdomäne werden auf eine einzige Zeitreferenzquelle synchronisiert. Stellen Sie diese Synchronisation sicher.</t>
+  </si>
+  <si>
+    <t>Erstellen Sie eine Bestandsaufnahme der priviligierten Hilfsprogramme, die zum Umgehen der Sicherheitsmaßnahmen eines Systems oder einer Anwendung verwendet werden, und beschränken und kontrollieren Sie deren Verwendung genau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementieren Sie Verfahren um die Installation von Software in Betriebssystemen zu steuern. </t>
+  </si>
+  <si>
+    <t>Verwalten und steuern Sie Netzwerke und Netzwerkgeräte, um die in Systemen und Anwendungen enthaltenen Informationen zu schützen.</t>
+  </si>
+  <si>
+    <t>Definieren und implementieren Sie Regeln für die Verwendung der Kryptographie, einschließlich der Verwaltung kryptographischer Schlüssel. Dokumentieren Sie den Einsatz der verwendeten Kryptographie</t>
+  </si>
+  <si>
+    <t>Erstellen und wenden Sie Regeln für die sichere Software- und Systementwicklung auf die Entwicklungen der Organisation an.</t>
+  </si>
+  <si>
+    <t>Legen Sie die Anforderungen an die Informationssicherheit bei der Entwicklung oder Beschaffung von Anwendungen fest und erstellen Sie einen Genemigungsprozess.</t>
+  </si>
+  <si>
+    <t>Führen Sie während der Entwicklung und vor Abnahme Tests der Sicherheitsfunktionen durch.</t>
+  </si>
+  <si>
+    <t>Kontrollieren Sie Systemänderungen innerhalb des Entwicklungs- und Betriebszyklus durch formale Verfahren.</t>
   </si>
 </sst>
 </file>
@@ -3095,10 +3114,10 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3134,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>717</v>
+        <v>500</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -3151,340 +3170,340 @@
     </row>
     <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>318</v>
+        <v>207</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>422</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>617</v>
+        <v>423</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="K2" t="s">
-        <v>716</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>423</v>
+        <v>273</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>616</v>
+        <v>422</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="K3" t="s">
-        <v>715</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>601</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>424</v>
+        <v>274</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>615</v>
+        <v>421</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="K4" t="s">
-        <v>714</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>718</v>
+        <v>501</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>425</v>
+        <v>275</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>614</v>
+        <v>420</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>618</v>
+        <v>424</v>
       </c>
       <c r="K5" t="s">
-        <v>713</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>509</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>602</v>
       </c>
       <c r="G6" t="s">
-        <v>719</v>
+        <v>502</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>426</v>
+        <v>276</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>613</v>
+        <v>419</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="K6" t="s">
-        <v>712</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>603</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>427</v>
+        <v>277</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>612</v>
+        <v>418</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="K7" t="s">
-        <v>711</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>511</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>428</v>
+        <v>278</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>611</v>
+        <v>417</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>620</v>
+        <v>426</v>
       </c>
       <c r="K8" t="s">
-        <v>710</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>512</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>429</v>
+        <v>279</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>610</v>
+        <v>416</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="K9" t="s">
-        <v>709</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>513</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>604</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>609</v>
+        <v>415</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="K10" t="s">
-        <v>708</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>514</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>326</v>
+        <v>605</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>431</v>
+        <v>281</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>608</v>
+        <v>414</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -3492,104 +3511,104 @@
     </row>
     <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>515</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>432</v>
+        <v>282</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>607</v>
+        <v>413</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="K12" t="s">
-        <v>707</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>516</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>606</v>
       </c>
       <c r="G13" t="s">
-        <v>421</v>
+        <v>271</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>433</v>
+        <v>283</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>606</v>
+        <v>412</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="K13" t="s">
-        <v>706</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>517</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>329</v>
+        <v>607</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>605</v>
+        <v>411</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
@@ -3597,314 +3616,314 @@
     </row>
     <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>608</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>439</v>
+        <v>289</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>604</v>
+        <v>410</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K15" t="s">
-        <v>705</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>519</v>
       </c>
       <c r="E16" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>331</v>
+        <v>609</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>603</v>
+        <v>409</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K16" t="s">
-        <v>704</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>520</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>610</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>441</v>
+        <v>291</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K17" t="s">
-        <v>703</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>521</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>333</v>
+        <v>612</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>442</v>
+        <v>292</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K18" t="s">
-        <v>702</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>334</v>
+        <v>614</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>443</v>
+        <v>293</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>600</v>
+        <v>408</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K19" t="s">
-        <v>701</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>523</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>335</v>
+        <v>615</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>444</v>
+        <v>294</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>599</v>
+        <v>407</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K20" t="s">
-        <v>700</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="E21" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>336</v>
+        <v>616</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>445</v>
+        <v>295</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>598</v>
+        <v>406</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K21" t="s">
-        <v>699</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>525</v>
       </c>
       <c r="E22" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>446</v>
+        <v>296</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K22" t="s">
-        <v>698</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>526</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>447</v>
+        <v>297</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K23" t="s">
         <v>27</v>
@@ -3912,104 +3931,104 @@
     </row>
     <row r="24" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>527</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>338</v>
+        <v>618</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>448</v>
+        <v>298</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K24" t="s">
-        <v>697</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>528</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
-        <v>338</v>
+        <v>620</v>
       </c>
       <c r="G25" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>449</v>
+        <v>299</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K25" t="s">
-        <v>696</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>529</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K26" t="s">
         <v>29</v>
@@ -4017,2711 +4036,2711 @@
     </row>
     <row r="27" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>530</v>
       </c>
       <c r="E27" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>340</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K27" t="s">
-        <v>695</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>531</v>
       </c>
       <c r="E28" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>452</v>
+        <v>302</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>592</v>
+        <v>405</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K28" t="s">
-        <v>694</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>532</v>
       </c>
       <c r="E29" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>453</v>
+        <v>303</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>33</v>
+        <v>624</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K29" t="s">
-        <v>693</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>533</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>454</v>
+        <v>304</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>591</v>
+        <v>404</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K30" t="s">
-        <v>692</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>534</v>
       </c>
       <c r="E31" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="F31" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
       <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="J31" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K31" t="s">
-        <v>691</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>535</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>456</v>
+        <v>306</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K32" t="s">
-        <v>690</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>536</v>
       </c>
       <c r="E33" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>418</v>
+        <v>268</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>457</v>
+        <v>307</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>589</v>
+        <v>403</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K33" t="s">
-        <v>689</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>537</v>
       </c>
       <c r="E34" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>626</v>
       </c>
       <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K34" t="s">
         <v>38</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="K34" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>538</v>
       </c>
       <c r="E35" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="F35" t="s">
-        <v>348</v>
+        <v>223</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>459</v>
+        <v>308</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>587</v>
+        <v>401</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K35" t="s">
-        <v>688</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>539</v>
       </c>
       <c r="E36" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="F36" t="s">
-        <v>349</v>
+        <v>224</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>460</v>
+        <v>309</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>586</v>
+        <v>400</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K36" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>540</v>
       </c>
       <c r="E37" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="G37" t="s">
-        <v>419</v>
+        <v>269</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>461</v>
+        <v>310</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>585</v>
+        <v>399</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K37" t="s">
-        <v>686</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>541</v>
       </c>
       <c r="E38" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>351</v>
+        <v>226</v>
       </c>
       <c r="G38" t="s">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>462</v>
+        <v>311</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>584</v>
+        <v>398</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K38" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>542</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>628</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>463</v>
+        <v>312</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>210</v>
+        <v>629</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K39" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>543</v>
       </c>
       <c r="E40" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>630</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>464</v>
+        <v>313</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K40" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>504</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>544</v>
       </c>
       <c r="E41" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="F41" t="s">
+        <v>632</v>
+      </c>
+      <c r="G41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K41" t="s">
         <v>44</v>
-      </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="K41" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>353</v>
+        <v>634</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>466</v>
+        <v>315</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>582</v>
+        <v>635</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K42" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>505</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>545</v>
       </c>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>227</v>
       </c>
       <c r="G43" t="s">
-        <v>417</v>
+        <v>267</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>467</v>
+        <v>316</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>581</v>
+        <v>397</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>622</v>
+        <v>428</v>
       </c>
       <c r="K43" t="s">
-        <v>681</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>505</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>546</v>
       </c>
       <c r="E44" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>636</v>
       </c>
       <c r="G44" t="s">
-        <v>417</v>
+        <v>267</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>468</v>
+        <v>317</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>623</v>
+        <v>429</v>
       </c>
       <c r="K44" t="s">
-        <v>212</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>505</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>547</v>
       </c>
       <c r="E45" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="F45" t="s">
-        <v>355</v>
+        <v>228</v>
       </c>
       <c r="G45" t="s">
-        <v>417</v>
+        <v>267</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>469</v>
+        <v>318</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>579</v>
+        <v>396</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>624</v>
+        <v>430</v>
       </c>
       <c r="K45" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>505</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>548</v>
       </c>
       <c r="E46" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
-        <v>356</v>
+        <v>229</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>577</v>
+        <v>394</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="K46" t="s">
-        <v>679</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>505</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>549</v>
       </c>
       <c r="E47" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>638</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>471</v>
+        <v>320</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>578</v>
+        <v>395</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>626</v>
+        <v>432</v>
       </c>
       <c r="K47" t="s">
-        <v>678</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>505</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>550</v>
       </c>
       <c r="E48" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="F48" t="s">
-        <v>357</v>
+        <v>230</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>472</v>
+        <v>321</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>576</v>
+        <v>393</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>627</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s">
-        <v>677</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>505</v>
       </c>
       <c r="C49" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>551</v>
       </c>
       <c r="E49" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="F49" t="s">
-        <v>358</v>
+        <v>231</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>473</v>
+        <v>322</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>575</v>
+        <v>392</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>623</v>
+        <v>429</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>505</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>552</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="F50" t="s">
-        <v>360</v>
+        <v>639</v>
       </c>
       <c r="G50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>474</v>
+        <v>323</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>574</v>
+        <v>391</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>627</v>
+        <v>433</v>
       </c>
       <c r="K50" t="s">
-        <v>676</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="F51" t="s">
-        <v>361</v>
+        <v>232</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>434</v>
+        <v>284</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="K51" t="s">
-        <v>437</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>553</v>
       </c>
       <c r="E52" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="F52" t="s">
-        <v>376</v>
+        <v>237</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>475</v>
+        <v>324</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>573</v>
+        <v>390</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>554</v>
       </c>
       <c r="E53" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="F53" t="s">
-        <v>362</v>
+        <v>640</v>
       </c>
       <c r="G53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>476</v>
+        <v>325</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K53" t="s">
-        <v>675</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>555</v>
       </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>642</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>477</v>
+        <v>326</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>571</v>
+        <v>389</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K54" t="s">
-        <v>674</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>556</v>
       </c>
       <c r="E55" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="F55" t="s">
-        <v>368</v>
+        <v>643</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>478</v>
+        <v>327</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>570</v>
+        <v>388</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K55" t="s">
-        <v>673</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>557</v>
       </c>
       <c r="E56" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="F56" t="s">
-        <v>364</v>
+        <v>233</v>
       </c>
       <c r="G56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>479</v>
+        <v>328</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K56" t="s">
-        <v>672</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>558</v>
       </c>
       <c r="E57" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="F57" t="s">
-        <v>365</v>
+        <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>480</v>
+        <v>329</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>568</v>
+        <v>386</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K57" t="s">
-        <v>671</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>559</v>
       </c>
       <c r="E58" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="F58" t="s">
-        <v>367</v>
+        <v>235</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>481</v>
+        <v>330</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>567</v>
+        <v>385</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K58" t="s">
-        <v>670</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>560</v>
       </c>
       <c r="E59" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="F59" t="s">
-        <v>366</v>
+        <v>644</v>
       </c>
       <c r="G59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>482</v>
+        <v>331</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K59" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>561</v>
       </c>
       <c r="E60" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="F60" t="s">
-        <v>369</v>
+        <v>236</v>
       </c>
       <c r="G60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>483</v>
+        <v>332</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>566</v>
+        <v>384</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="K60" t="s">
-        <v>668</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>562</v>
       </c>
       <c r="E61" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="F61" t="s">
-        <v>370</v>
+        <v>645</v>
       </c>
       <c r="G61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>484</v>
+        <v>333</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>565</v>
+        <v>646</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K61" t="s">
-        <v>667</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>563</v>
       </c>
       <c r="E62" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="F62" t="s">
-        <v>371</v>
+        <v>647</v>
       </c>
       <c r="G62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>485</v>
+        <v>334</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>564</v>
+        <v>383</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K62" t="s">
-        <v>666</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>564</v>
       </c>
       <c r="E63" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="F63" t="s">
-        <v>373</v>
+        <v>648</v>
       </c>
       <c r="G63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>486</v>
+        <v>335</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>563</v>
+        <v>382</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K63" t="s">
-        <v>62</v>
+        <v>704</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>565</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>372</v>
+        <v>649</v>
       </c>
       <c r="G64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>487</v>
+        <v>336</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>562</v>
+        <v>381</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K64" t="s">
-        <v>665</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>566</v>
       </c>
       <c r="E65" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="F65" t="s">
-        <v>374</v>
+        <v>650</v>
       </c>
       <c r="G65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>488</v>
+        <v>337</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>561</v>
+        <v>380</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="K65" t="s">
-        <v>664</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="F66" t="s">
-        <v>375</v>
+        <v>651</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>489</v>
+        <v>652</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>560</v>
+        <v>379</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="K66" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="F67" t="s">
-        <v>377</v>
+        <v>653</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>490</v>
+        <v>654</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>65</v>
+        <v>655</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="K67" t="s">
-        <v>662</v>
+        <v>706</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>567</v>
       </c>
       <c r="E68" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="F68" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="G68" t="s">
         <v>23</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>491</v>
+        <v>656</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>559</v>
+        <v>657</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>623</v>
+        <v>429</v>
       </c>
       <c r="K68" t="s">
-        <v>661</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>568</v>
       </c>
       <c r="E69" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="F69" t="s">
-        <v>379</v>
+        <v>239</v>
       </c>
       <c r="G69" t="s">
         <v>24</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>492</v>
+        <v>658</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>558</v>
+        <v>659</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>629</v>
+        <v>435</v>
       </c>
       <c r="K69" t="s">
-        <v>660</v>
+        <v>707</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C70" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
+        <v>569</v>
+      </c>
+      <c r="E70" t="s">
         <v>172</v>
       </c>
-      <c r="E70" t="s">
-        <v>283</v>
-      </c>
       <c r="F70" t="s">
-        <v>380</v>
+        <v>660</v>
       </c>
       <c r="G70" t="s">
         <v>24</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>493</v>
+        <v>338</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>557</v>
+        <v>378</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>630</v>
+        <v>436</v>
       </c>
       <c r="K70" t="s">
-        <v>659</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
+        <v>570</v>
+      </c>
+      <c r="E71" t="s">
         <v>173</v>
       </c>
-      <c r="E71" t="s">
-        <v>284</v>
-      </c>
       <c r="F71" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="G71" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>494</v>
+        <v>339</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>556</v>
+        <v>661</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K71" t="s">
-        <v>658</v>
+        <v>708</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
+        <v>571</v>
+      </c>
+      <c r="E72" t="s">
         <v>174</v>
       </c>
-      <c r="E72" t="s">
-        <v>285</v>
-      </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G72" t="s">
         <v>24</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>495</v>
+        <v>340</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>555</v>
+        <v>377</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K72" t="s">
-        <v>657</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
+        <v>572</v>
+      </c>
+      <c r="E73" t="s">
         <v>175</v>
       </c>
-      <c r="E73" t="s">
-        <v>286</v>
-      </c>
       <c r="F73" t="s">
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="G73" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>496</v>
+        <v>341</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>554</v>
+        <v>376</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K73" t="s">
-        <v>656</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
+        <v>573</v>
+      </c>
+      <c r="E74" t="s">
         <v>176</v>
       </c>
-      <c r="E74" t="s">
-        <v>287</v>
-      </c>
       <c r="F74" t="s">
-        <v>383</v>
+        <v>662</v>
       </c>
       <c r="G74" t="s">
-        <v>416</v>
+        <v>266</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>465</v>
+        <v>663</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>553</v>
+        <v>375</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K74" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
+        <v>574</v>
+      </c>
+      <c r="E75" t="s">
         <v>177</v>
       </c>
-      <c r="E75" t="s">
-        <v>288</v>
-      </c>
       <c r="F75" t="s">
-        <v>384</v>
+        <v>242</v>
       </c>
       <c r="G75" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>497</v>
+        <v>342</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>552</v>
+        <v>664</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K75" t="s">
-        <v>655</v>
+        <v>709</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
+        <v>575</v>
+      </c>
+      <c r="E76" t="s">
         <v>178</v>
       </c>
-      <c r="E76" t="s">
-        <v>289</v>
-      </c>
       <c r="F76" t="s">
-        <v>385</v>
+        <v>243</v>
       </c>
       <c r="G76" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>498</v>
+        <v>343</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>551</v>
+        <v>665</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K76" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
+        <v>576</v>
+      </c>
+      <c r="E77" t="s">
         <v>179</v>
       </c>
-      <c r="E77" t="s">
-        <v>290</v>
-      </c>
       <c r="F77" t="s">
-        <v>387</v>
+        <v>666</v>
       </c>
       <c r="G77" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>499</v>
+        <v>667</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>550</v>
+        <v>668</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K77" t="s">
-        <v>653</v>
+        <v>710</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
+        <v>577</v>
+      </c>
+      <c r="E78" t="s">
         <v>180</v>
       </c>
-      <c r="E78" t="s">
-        <v>291</v>
-      </c>
       <c r="F78" t="s">
-        <v>386</v>
+        <v>244</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>500</v>
+        <v>344</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>549</v>
+        <v>669</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
+        <v>578</v>
+      </c>
+      <c r="E79" t="s">
         <v>181</v>
       </c>
-      <c r="E79" t="s">
-        <v>292</v>
-      </c>
       <c r="F79" t="s">
-        <v>388</v>
+        <v>245</v>
       </c>
       <c r="G79" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>501</v>
+        <v>345</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>548</v>
+        <v>374</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K79" t="s">
-        <v>652</v>
+        <v>711</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
+        <v>579</v>
+      </c>
+      <c r="E80" t="s">
         <v>182</v>
       </c>
-      <c r="E80" t="s">
-        <v>293</v>
-      </c>
       <c r="F80" t="s">
-        <v>389</v>
+        <v>246</v>
       </c>
       <c r="G80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>503</v>
+        <v>346</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>547</v>
+        <v>670</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K80" t="s">
-        <v>77</v>
+        <v>712</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D81" t="s">
+        <v>580</v>
+      </c>
+      <c r="E81" t="s">
         <v>183</v>
       </c>
-      <c r="E81" t="s">
-        <v>294</v>
-      </c>
       <c r="F81" t="s">
-        <v>390</v>
+        <v>247</v>
       </c>
       <c r="G81" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>502</v>
+        <v>671</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>546</v>
+        <v>373</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K81" t="s">
-        <v>651</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
+        <v>581</v>
+      </c>
+      <c r="E82" t="s">
         <v>184</v>
       </c>
-      <c r="E82" t="s">
-        <v>295</v>
-      </c>
       <c r="F82" t="s">
-        <v>391</v>
+        <v>248</v>
       </c>
       <c r="G82" t="s">
-        <v>415</v>
+        <v>265</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>504</v>
+        <v>347</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>545</v>
+        <v>372</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K82" t="s">
-        <v>650</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
+        <v>582</v>
+      </c>
+      <c r="E83" t="s">
         <v>185</v>
       </c>
-      <c r="E83" t="s">
-        <v>296</v>
-      </c>
       <c r="F83" t="s">
-        <v>393</v>
+        <v>672</v>
       </c>
       <c r="G83" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>505</v>
+        <v>348</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>544</v>
+        <v>371</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K83" t="s">
-        <v>80</v>
+        <v>714</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
+        <v>583</v>
+      </c>
+      <c r="E84" t="s">
         <v>186</v>
       </c>
-      <c r="E84" t="s">
-        <v>297</v>
-      </c>
       <c r="F84" t="s">
-        <v>392</v>
+        <v>673</v>
       </c>
       <c r="G84" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>506</v>
+        <v>349</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>543</v>
+        <v>674</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K84" t="s">
-        <v>649</v>
+        <v>715</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
+        <v>584</v>
+      </c>
+      <c r="E85" t="s">
         <v>187</v>
       </c>
-      <c r="E85" t="s">
-        <v>298</v>
-      </c>
       <c r="F85" t="s">
-        <v>394</v>
+        <v>249</v>
       </c>
       <c r="G85" t="s">
-        <v>414</v>
+        <v>264</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>507</v>
+        <v>350</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>542</v>
+        <v>675</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K85" t="s">
-        <v>648</v>
+        <v>716</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D86" t="s">
+        <v>585</v>
+      </c>
+      <c r="E86" t="s">
         <v>188</v>
       </c>
-      <c r="E86" t="s">
-        <v>299</v>
-      </c>
       <c r="F86" t="s">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="G86" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>508</v>
+        <v>676</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>541</v>
+        <v>370</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K86" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
+        <v>586</v>
+      </c>
+      <c r="E87" t="s">
         <v>189</v>
       </c>
-      <c r="E87" t="s">
-        <v>300</v>
-      </c>
       <c r="F87" t="s">
-        <v>396</v>
+        <v>251</v>
       </c>
       <c r="G87" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>509</v>
+        <v>351</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>540</v>
+        <v>677</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K87" t="s">
-        <v>646</v>
+        <v>718</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D88" t="s">
+        <v>587</v>
+      </c>
+      <c r="E88" t="s">
         <v>190</v>
       </c>
-      <c r="E88" t="s">
-        <v>301</v>
-      </c>
       <c r="F88" t="s">
-        <v>397</v>
+        <v>678</v>
       </c>
       <c r="G88" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>510</v>
+        <v>352</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>539</v>
+        <v>369</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K88" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
+        <v>588</v>
+      </c>
+      <c r="E89" t="s">
         <v>191</v>
       </c>
-      <c r="E89" t="s">
-        <v>302</v>
-      </c>
       <c r="F89" t="s">
-        <v>398</v>
+        <v>252</v>
       </c>
       <c r="G89" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>511</v>
+        <v>679</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>538</v>
+        <v>680</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K89" t="s">
-        <v>645</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
+        <v>589</v>
+      </c>
+      <c r="E90" t="s">
         <v>192</v>
       </c>
-      <c r="E90" t="s">
-        <v>303</v>
-      </c>
       <c r="F90" t="s">
-        <v>399</v>
+        <v>253</v>
       </c>
       <c r="G90" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>512</v>
+        <v>681</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>537</v>
+        <v>682</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K90" t="s">
-        <v>86</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
+        <v>590</v>
+      </c>
+      <c r="E91" t="s">
         <v>193</v>
       </c>
-      <c r="E91" t="s">
-        <v>304</v>
-      </c>
       <c r="F91" t="s">
-        <v>400</v>
+        <v>254</v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>513</v>
+        <v>353</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>536</v>
+        <v>683</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K91" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D92" t="s">
+        <v>591</v>
+      </c>
+      <c r="E92" t="s">
         <v>194</v>
       </c>
-      <c r="E92" t="s">
-        <v>305</v>
-      </c>
       <c r="F92" t="s">
-        <v>401</v>
+        <v>255</v>
       </c>
       <c r="G92" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>514</v>
+        <v>354</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>535</v>
+        <v>368</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K92" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
+        <v>592</v>
+      </c>
+      <c r="E93" t="s">
         <v>195</v>
       </c>
-      <c r="E93" t="s">
-        <v>306</v>
-      </c>
       <c r="F93" t="s">
-        <v>402</v>
+        <v>256</v>
       </c>
       <c r="G93" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>515</v>
+        <v>684</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>89</v>
+        <v>685</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K93" t="s">
-        <v>642</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D94" t="s">
+        <v>593</v>
+      </c>
+      <c r="E94" t="s">
         <v>196</v>
       </c>
-      <c r="E94" t="s">
-        <v>307</v>
-      </c>
       <c r="F94" t="s">
-        <v>403</v>
+        <v>257</v>
       </c>
       <c r="G94" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>516</v>
+        <v>355</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>534</v>
+        <v>367</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K94" t="s">
-        <v>641</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D95" t="s">
+        <v>594</v>
+      </c>
+      <c r="E95" t="s">
         <v>197</v>
       </c>
-      <c r="E95" t="s">
-        <v>308</v>
-      </c>
       <c r="F95" t="s">
-        <v>404</v>
+        <v>686</v>
       </c>
       <c r="G95" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>517</v>
+        <v>356</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>533</v>
+        <v>687</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K95" t="s">
-        <v>640</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
+        <v>595</v>
+      </c>
+      <c r="E96" t="s">
         <v>198</v>
       </c>
-      <c r="E96" t="s">
-        <v>309</v>
-      </c>
       <c r="F96" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
       <c r="G96" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>518</v>
+        <v>357</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>532</v>
+        <v>688</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K96" t="s">
-        <v>91</v>
+        <v>722</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D97" t="s">
+        <v>596</v>
+      </c>
+      <c r="E97" t="s">
         <v>199</v>
       </c>
-      <c r="E97" t="s">
-        <v>310</v>
-      </c>
       <c r="F97" t="s">
-        <v>406</v>
+        <v>689</v>
       </c>
       <c r="G97" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>519</v>
+        <v>358</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>531</v>
+        <v>366</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K97" t="s">
-        <v>639</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D98" t="s">
+        <v>597</v>
+      </c>
+      <c r="E98" t="s">
         <v>200</v>
       </c>
-      <c r="E98" t="s">
-        <v>311</v>
-      </c>
       <c r="F98" t="s">
-        <v>407</v>
+        <v>259</v>
       </c>
       <c r="G98" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>520</v>
+        <v>690</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K98" t="s">
-        <v>638</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
+        <v>598</v>
+      </c>
+      <c r="E99" t="s">
         <v>201</v>
       </c>
-      <c r="E99" t="s">
-        <v>312</v>
-      </c>
       <c r="F99" t="s">
-        <v>408</v>
+        <v>260</v>
       </c>
       <c r="G99" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>521</v>
+        <v>359</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>530</v>
+        <v>365</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K99" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B100" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
+        <v>599</v>
+      </c>
+      <c r="E100" t="s">
         <v>202</v>
       </c>
-      <c r="E100" t="s">
-        <v>313</v>
-      </c>
       <c r="F100" t="s">
-        <v>409</v>
+        <v>261</v>
       </c>
       <c r="G100" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>522</v>
+        <v>691</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>529</v>
+        <v>364</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K100" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
+        <v>600</v>
+      </c>
+      <c r="E101" t="s">
         <v>203</v>
       </c>
-      <c r="E101" t="s">
-        <v>314</v>
-      </c>
       <c r="F101" t="s">
-        <v>410</v>
+        <v>262</v>
       </c>
       <c r="G101" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>523</v>
+        <v>692</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>528</v>
+        <v>693</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="K101" t="s">
-        <v>636</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D102" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" t="s">
         <v>204</v>
       </c>
-      <c r="E102" t="s">
-        <v>315</v>
-      </c>
       <c r="F102" t="s">
-        <v>411</v>
+        <v>263</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>524</v>
+        <v>360</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>632</v>
+        <v>438</v>
       </c>
       <c r="K102" t="s">
-        <v>635</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>503</v>
+      </c>
+      <c r="B103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
         <v>99</v>
       </c>
-      <c r="B103" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>205</v>
       </c>
-      <c r="E103" t="s">
-        <v>316</v>
-      </c>
       <c r="F103" t="s">
-        <v>412</v>
+        <v>694</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>525</v>
+        <v>361</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>527</v>
+        <v>363</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>632</v>
+        <v>438</v>
       </c>
       <c r="K103" t="s">
-        <v>634</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D104" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" t="s">
         <v>206</v>
       </c>
-      <c r="E104" t="s">
-        <v>317</v>
-      </c>
       <c r="F104" t="s">
-        <v>413</v>
+        <v>695</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>526</v>
+        <v>362</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>632</v>
+        <v>438</v>
       </c>
       <c r="K104" t="s">
-        <v>633</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
